--- a/Scrum/491B Breakdown.xlsx
+++ b/Scrum/491B Breakdown.xlsx
@@ -73,10 +73,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -177,7 +179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$17:$M$31</c:f>
+              <c:f>Sheet1!$M$17:$M$67</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -206,17 +208,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$17:$P$31</c:f>
+              <c:f>Sheet1!$P$17:$P$32</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2060188457"/>
-        <c:axId val="1634974812"/>
+        <c:axId val="900629765"/>
+        <c:axId val="599935103"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2060188457"/>
+        <c:axId val="900629765"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -268,10 +270,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1634974812"/>
+        <c:crossAx val="599935103"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1634974812"/>
+        <c:axId val="599935103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,7 +348,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2060188457"/>
+        <c:crossAx val="900629765"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -464,11 +466,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="56281869"/>
-        <c:axId val="892863532"/>
+        <c:axId val="1633196649"/>
+        <c:axId val="549729758"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56281869"/>
+        <c:axId val="1633196649"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,10 +522,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="892863532"/>
+        <c:crossAx val="549729758"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="892863532"/>
+        <c:axId val="549729758"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-15.0"/>
@@ -599,7 +601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56281869"/>
+        <c:crossAx val="1633196649"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -629,10 +631,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -654,10 +656,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -882,11 +884,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="13" max="13" width="18.43"/>
-    <col customWidth="1" min="16" max="16" width="24.43"/>
-    <col customWidth="1" min="17" max="17" width="20.29"/>
+    <col customWidth="1" min="13" max="13" width="16.13"/>
+    <col customWidth="1" min="16" max="16" width="21.38"/>
+    <col customWidth="1" min="17" max="17" width="17.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -982,7 +984,7 @@
         <v>150.0</v>
       </c>
       <c r="U2" s="4">
-        <f t="shared" ref="U2:U31" si="1">T2-Q2</f>
+        <f>T2-Q2</f>
         <v>0</v>
       </c>
       <c r="V2" s="1">
@@ -1000,43 +1002,43 @@
         <v>2.0</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D15" si="2">D2-C3</f>
+        <f t="shared" ref="D3:D15" si="1">D2-C3</f>
         <v>13</v>
       </c>
       <c r="E3" s="1">
         <v>1.0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F15" si="3">F2-E3</f>
+        <f t="shared" ref="F3:F15" si="2">F2-E3</f>
         <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H15" si="4">H2-G3</f>
+        <f t="shared" ref="H3:H15" si="3">H2-G3</f>
         <v>13</v>
       </c>
       <c r="I3" s="1">
         <v>0.0</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J16" si="5">J2-I3</f>
+        <f t="shared" ref="J3:J16" si="4">J2-I3</f>
         <v>15</v>
       </c>
       <c r="K3" s="1">
         <v>2.0</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" ref="L3:L15" si="6">L2-K3</f>
+        <f t="shared" ref="L3:L15" si="5">L2-K3</f>
         <v>13</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" ref="M3:M15" si="7">M2-(C3+E3+G3+I3+K3)</f>
+        <f t="shared" ref="M3:M15" si="6">M2-(C3+E3+G3+I3+K3)</f>
         <v>68</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" ref="N3:N30" si="8">N2-(C3+E3+G3+I3+K3)</f>
+        <f t="shared" ref="N3:N30" si="7">N2-(C3+E3+G3+I3+K3)</f>
         <v>143</v>
       </c>
       <c r="O3" s="4">
@@ -1044,19 +1046,19 @@
         <v>13.92857143</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P16" si="9">P2-75/14</f>
+        <f t="shared" ref="P3:P15" si="8">P2-75/14</f>
         <v>69.64285714</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q31" si="10">Q2-150/29</f>
+        <f t="shared" ref="Q3:Q30" si="9">Q2-150/29</f>
         <v>144.8275862</v>
       </c>
       <c r="T3" s="1">
         <v>143.0</v>
       </c>
       <c r="U3" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.827586207</v>
+        <f t="shared" ref="U3:U30" si="10">((Q3-T3)/T3)*100</f>
+        <v>1.278032313</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" ref="V3:V31" si="11">V2</f>
@@ -1071,63 +1073,63 @@
         <v>0.0</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="E4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H4" s="4">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="H4" s="4">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="J4" s="1">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L4" s="4">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L4" s="4">
+        <v>12</v>
+      </c>
+      <c r="M4" s="4">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="M4" s="4">
+        <v>63</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" si="7"/>
-        <v>63</v>
-      </c>
-      <c r="N4" s="4">
+        <v>138</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O15" si="12">O3-(30/28)</f>
+        <v>12.85714286</v>
+      </c>
+      <c r="P4" s="4">
         <f t="shared" si="8"/>
-        <v>138</v>
-      </c>
-      <c r="O4" s="4">
-        <f t="shared" ref="O4:O16" si="12">O3-(30/28)</f>
-        <v>12.85714286</v>
-      </c>
-      <c r="P4" s="4">
+        <v>64.28571429</v>
+      </c>
+      <c r="Q4" s="4">
         <f t="shared" si="9"/>
-        <v>64.28571429</v>
-      </c>
-      <c r="Q4" s="4">
-        <f t="shared" si="10"/>
         <v>139.6551724</v>
       </c>
       <c r="T4" s="1">
         <v>138.0</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.655172414</v>
+        <f t="shared" si="10"/>
+        <v>1.1994003</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="11"/>
@@ -1142,43 +1144,43 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="4">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="1">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="4">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="4">
+        <v>12</v>
+      </c>
+      <c r="M5" s="4">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="M5" s="4">
+        <v>63</v>
+      </c>
+      <c r="N5" s="4">
         <f t="shared" si="7"/>
-        <v>63</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="8"/>
         <v>138</v>
       </c>
       <c r="O5" s="4">
@@ -1186,19 +1188,19 @@
         <v>11.78571429</v>
       </c>
       <c r="P5" s="4">
+        <f t="shared" si="8"/>
+        <v>58.92857143</v>
+      </c>
+      <c r="Q5" s="4">
         <f t="shared" si="9"/>
-        <v>58.92857143</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="10"/>
         <v>134.4827586</v>
       </c>
       <c r="T5" s="1">
         <v>138.0</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="1"/>
-        <v>3.517241379</v>
+        <f t="shared" si="10"/>
+        <v>-2.548725637</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="11"/>
@@ -1213,43 +1215,43 @@
         <v>0.0</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="4">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="1">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="4">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="4">
+        <v>12</v>
+      </c>
+      <c r="M6" s="4">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="M6" s="4">
+        <v>63</v>
+      </c>
+      <c r="N6" s="4">
         <f t="shared" si="7"/>
-        <v>63</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="8"/>
         <v>138</v>
       </c>
       <c r="O6" s="4">
@@ -1257,19 +1259,19 @@
         <v>10.71428571</v>
       </c>
       <c r="P6" s="4">
+        <f t="shared" si="8"/>
+        <v>53.57142857</v>
+      </c>
+      <c r="Q6" s="4">
         <f t="shared" si="9"/>
-        <v>53.57142857</v>
-      </c>
-      <c r="Q6" s="4">
-        <f t="shared" si="10"/>
         <v>129.3103448</v>
       </c>
       <c r="T6" s="1">
         <v>138.0</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="1"/>
-        <v>8.689655172</v>
+        <f t="shared" si="10"/>
+        <v>-6.296851574</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="11"/>
@@ -1284,43 +1286,43 @@
         <v>1.0</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="1">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="I7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="I7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="M7" s="4">
+        <v>57</v>
+      </c>
+      <c r="N7" s="4">
         <f t="shared" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="8"/>
         <v>132</v>
       </c>
       <c r="O7" s="4">
@@ -1328,19 +1330,19 @@
         <v>9.642857143</v>
       </c>
       <c r="P7" s="4">
+        <f t="shared" si="8"/>
+        <v>48.21428571</v>
+      </c>
+      <c r="Q7" s="4">
         <f t="shared" si="9"/>
-        <v>48.21428571</v>
-      </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="10"/>
         <v>124.137931</v>
       </c>
       <c r="T7" s="1">
         <v>132.0</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="1"/>
-        <v>7.862068966</v>
+        <f t="shared" si="10"/>
+        <v>-5.956112853</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" si="11"/>
@@ -1355,43 +1357,43 @@
         <v>1.0</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="1">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="I8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="I8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="M8" s="4">
+        <v>49</v>
+      </c>
+      <c r="N8" s="4">
         <f t="shared" si="7"/>
-        <v>49</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="8"/>
         <v>124</v>
       </c>
       <c r="O8" s="4">
@@ -1399,19 +1401,19 @@
         <v>8.571428571</v>
       </c>
       <c r="P8" s="4">
+        <f t="shared" si="8"/>
+        <v>42.85714286</v>
+      </c>
+      <c r="Q8" s="4">
         <f t="shared" si="9"/>
-        <v>42.85714286</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="10"/>
         <v>118.9655172</v>
       </c>
       <c r="T8" s="1">
         <v>124.0</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" si="1"/>
-        <v>5.034482759</v>
+        <f t="shared" si="10"/>
+        <v>-4.060066741</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="11"/>
@@ -1426,43 +1428,43 @@
         <v>2.0</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H9" s="4">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="M9" s="4">
+        <v>43</v>
+      </c>
+      <c r="N9" s="4">
         <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="8"/>
         <v>118</v>
       </c>
       <c r="O9" s="4">
@@ -1470,19 +1472,19 @@
         <v>7.5</v>
       </c>
       <c r="P9" s="4">
+        <f t="shared" si="8"/>
+        <v>37.5</v>
+      </c>
+      <c r="Q9" s="4">
         <f t="shared" si="9"/>
-        <v>37.5</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="10"/>
         <v>113.7931034</v>
       </c>
       <c r="T9" s="1">
         <v>118.0</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" si="1"/>
-        <v>4.206896552</v>
+        <f t="shared" si="10"/>
+        <v>-3.565166569</v>
       </c>
       <c r="V9" s="4">
         <f t="shared" si="11"/>
@@ -1497,43 +1499,43 @@
         <v>2.0</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
       <c r="G10" s="1">
         <v>3.0</v>
       </c>
       <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="J10" s="1">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L10" s="4">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L10" s="4">
+        <v>7</v>
+      </c>
+      <c r="M10" s="4">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="M10" s="4">
+        <v>35</v>
+      </c>
+      <c r="N10" s="4">
         <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="O10" s="4">
@@ -1541,19 +1543,19 @@
         <v>6.428571429</v>
       </c>
       <c r="P10" s="4">
+        <f t="shared" si="8"/>
+        <v>32.14285714</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" si="9"/>
-        <v>32.14285714</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="10"/>
         <v>108.6206897</v>
       </c>
       <c r="T10" s="1">
         <v>110.0</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="1"/>
-        <v>1.379310345</v>
+        <f t="shared" si="10"/>
+        <v>-1.253918495</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="11"/>
@@ -1568,43 +1570,43 @@
         <v>2.0</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I11" s="1">
         <v>3.0</v>
       </c>
       <c r="J11" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L11" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="M11" s="4">
+        <v>29</v>
+      </c>
+      <c r="N11" s="4">
         <f t="shared" si="7"/>
-        <v>29</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="8"/>
         <v>104</v>
       </c>
       <c r="O11" s="4">
@@ -1612,19 +1614,19 @@
         <v>5.357142857</v>
       </c>
       <c r="P11" s="4">
+        <f t="shared" si="8"/>
+        <v>26.78571429</v>
+      </c>
+      <c r="Q11" s="4">
         <f t="shared" si="9"/>
-        <v>26.78571429</v>
-      </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="10"/>
         <v>103.4482759</v>
       </c>
       <c r="T11" s="1">
         <v>104.0</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5517241379</v>
+        <f t="shared" si="10"/>
+        <v>-0.5305039788</v>
       </c>
       <c r="V11" s="4">
         <f t="shared" si="11"/>
@@ -1639,43 +1641,43 @@
         <v>0.0</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="I12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="M12" s="4">
+        <v>27</v>
+      </c>
+      <c r="N12" s="4">
         <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="O12" s="4">
@@ -1683,19 +1685,19 @@
         <v>4.285714286</v>
       </c>
       <c r="P12" s="4">
+        <f t="shared" si="8"/>
+        <v>21.42857143</v>
+      </c>
+      <c r="Q12" s="4">
         <f t="shared" si="9"/>
-        <v>21.42857143</v>
-      </c>
-      <c r="Q12" s="4">
-        <f t="shared" si="10"/>
         <v>98.27586207</v>
       </c>
       <c r="T12" s="1">
         <v>102.0</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="1"/>
-        <v>3.724137931</v>
+        <f t="shared" si="10"/>
+        <v>-3.651115619</v>
       </c>
       <c r="V12" s="4">
         <f t="shared" si="11"/>
@@ -1710,43 +1712,43 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="E13" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="I13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="1">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="M13" s="4">
+        <v>25</v>
+      </c>
+      <c r="N13" s="4">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="O13" s="4">
@@ -1754,19 +1756,19 @@
         <v>3.214285714</v>
       </c>
       <c r="P13" s="4">
+        <f t="shared" si="8"/>
+        <v>16.07142857</v>
+      </c>
+      <c r="Q13" s="4">
         <f t="shared" si="9"/>
-        <v>16.07142857</v>
-      </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="10"/>
         <v>93.10344828</v>
       </c>
       <c r="T13" s="1">
         <v>100.0</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="1"/>
-        <v>6.896551724</v>
+        <f t="shared" si="10"/>
+        <v>-6.896551724</v>
       </c>
       <c r="V13" s="4">
         <f t="shared" si="11"/>
@@ -1781,43 +1783,43 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I14" s="1">
         <v>3.0</v>
       </c>
       <c r="J14" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L14" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L14" s="4">
+        <v>5</v>
+      </c>
+      <c r="M14" s="4">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="M14" s="4">
+        <v>16</v>
+      </c>
+      <c r="N14" s="4">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="8"/>
         <v>91</v>
       </c>
       <c r="O14" s="4">
@@ -1825,19 +1827,19 @@
         <v>2.142857143</v>
       </c>
       <c r="P14" s="4">
+        <f t="shared" si="8"/>
+        <v>10.71428571</v>
+      </c>
+      <c r="Q14" s="4">
         <f t="shared" si="9"/>
-        <v>10.71428571</v>
-      </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="10"/>
         <v>87.93103448</v>
       </c>
       <c r="T14" s="1">
         <v>91.0</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="1"/>
-        <v>3.068965517</v>
+        <f t="shared" si="10"/>
+        <v>-3.372489579</v>
       </c>
       <c r="V14" s="4">
         <f t="shared" si="11"/>
@@ -1852,43 +1854,43 @@
         <v>1.0</v>
       </c>
       <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="3"/>
+      <c r="I15" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L15" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="L15" s="4">
+        <v>3</v>
+      </c>
+      <c r="M15" s="4">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M15" s="4">
+        <v>9</v>
+      </c>
+      <c r="N15" s="4">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="8"/>
         <v>84</v>
       </c>
       <c r="O15" s="4">
@@ -1896,19 +1898,19 @@
         <v>1.071428571</v>
       </c>
       <c r="P15" s="4">
+        <f t="shared" si="8"/>
+        <v>5.357142857</v>
+      </c>
+      <c r="Q15" s="4">
         <f t="shared" si="9"/>
-        <v>5.357142857</v>
-      </c>
-      <c r="Q15" s="4">
-        <f t="shared" si="10"/>
         <v>82.75862069</v>
       </c>
       <c r="T15" s="1">
         <v>84.0</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="1"/>
-        <v>1.24137931</v>
+        <f t="shared" si="10"/>
+        <v>-1.477832512</v>
       </c>
       <c r="V15" s="4">
         <f t="shared" si="11"/>
@@ -1941,7 +1943,7 @@
         <v>1.0</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K16" s="1">
@@ -1954,27 +1956,25 @@
         <v>0.0</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="O16" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="O16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="10"/>
         <v>77.5862069</v>
       </c>
       <c r="T16" s="1">
         <v>80.0</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="1"/>
-        <v>2.413793103</v>
+        <f t="shared" si="10"/>
+        <v>-3.017241379</v>
       </c>
       <c r="V16" s="4">
         <f t="shared" si="11"/>
@@ -2019,7 +2019,7 @@
         <v>75.0</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="O17" s="1">
@@ -2029,15 +2029,15 @@
         <v>75.0</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>72.4137931</v>
       </c>
       <c r="T17" s="1">
         <v>77.0</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="1"/>
-        <v>4.586206897</v>
+        <f t="shared" si="10"/>
+        <v>-5.956112853</v>
       </c>
       <c r="V17" s="4">
         <f t="shared" si="11"/>
@@ -2086,7 +2086,7 @@
         <v>72.0</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="O18" s="4">
@@ -2094,19 +2094,19 @@
         <v>13.92857143</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" ref="P18:P31" si="13">P17-75/14</f>
+        <f t="shared" ref="P18:P30" si="13">P17-75/14</f>
         <v>69.64285714</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>67.24137931</v>
       </c>
       <c r="T18" s="1">
         <v>73.0</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="1"/>
-        <v>5.75862069</v>
+        <f t="shared" si="10"/>
+        <v>-7.888521493</v>
       </c>
       <c r="V18" s="4">
         <f t="shared" si="11"/>
@@ -2157,11 +2157,11 @@
         <v>68</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" ref="O19:O31" si="20">O18-(30/28)</f>
+        <f t="shared" ref="O19:O30" si="20">O18-(30/28)</f>
         <v>12.85714286</v>
       </c>
       <c r="P19" s="4">
@@ -2169,15 +2169,15 @@
         <v>64.28571429</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>62.06896552</v>
       </c>
       <c r="T19" s="1">
         <v>69.0</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="1"/>
-        <v>6.931034483</v>
+        <f t="shared" si="10"/>
+        <v>-10.04497751</v>
       </c>
       <c r="V19" s="4">
         <f t="shared" si="11"/>
@@ -2228,7 +2228,7 @@
         <v>66</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="O20" s="4">
@@ -2240,15 +2240,15 @@
         <v>58.92857143</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>56.89655172</v>
       </c>
       <c r="T20" s="1">
         <v>67.0</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="1"/>
-        <v>10.10344828</v>
+        <f t="shared" si="10"/>
+        <v>-15.07977355</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" si="11"/>
@@ -2299,7 +2299,7 @@
         <v>60</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="O21" s="4">
@@ -2311,15 +2311,15 @@
         <v>53.57142857</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>51.72413793</v>
       </c>
       <c r="T21" s="1">
         <v>61.0</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="1"/>
-        <v>9.275862069</v>
+        <f t="shared" si="10"/>
+        <v>-15.20633126</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="11"/>
@@ -2370,7 +2370,7 @@
         <v>54</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="O22" s="4">
@@ -2382,15 +2382,15 @@
         <v>48.21428571</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>46.55172414</v>
       </c>
       <c r="T22" s="1">
         <v>55.0</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="1"/>
-        <v>8.448275862</v>
+        <f t="shared" si="10"/>
+        <v>-15.36050157</v>
       </c>
       <c r="V22" s="4">
         <f t="shared" si="11"/>
@@ -2441,7 +2441,7 @@
         <v>47</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="O23" s="4">
@@ -2453,15 +2453,15 @@
         <v>42.85714286</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>41.37931034</v>
       </c>
       <c r="T23" s="1">
         <v>48.0</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="1"/>
-        <v>6.620689655</v>
+        <f t="shared" si="10"/>
+        <v>-13.79310345</v>
       </c>
       <c r="V23" s="4">
         <f t="shared" si="11"/>
@@ -2512,7 +2512,7 @@
         <v>40</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="O24" s="4">
@@ -2524,15 +2524,15 @@
         <v>37.5</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>36.20689655</v>
       </c>
       <c r="T24" s="1">
         <v>41.0</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="1"/>
-        <v>4.793103448</v>
+        <f t="shared" si="10"/>
+        <v>-11.69049622</v>
       </c>
       <c r="V24" s="4">
         <f t="shared" si="11"/>
@@ -2583,7 +2583,7 @@
         <v>31</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="O25" s="4">
@@ -2595,15 +2595,15 @@
         <v>32.14285714</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31.03448276</v>
       </c>
       <c r="T25" s="1">
         <v>32.0</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.9655172414</v>
+        <f t="shared" si="10"/>
+        <v>-3.017241379</v>
       </c>
       <c r="V25" s="4">
         <f t="shared" si="11"/>
@@ -2654,7 +2654,7 @@
         <v>28</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="O26" s="4">
@@ -2666,15 +2666,15 @@
         <v>26.78571429</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25.86206897</v>
       </c>
       <c r="T26" s="1">
         <v>29.0</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="1"/>
-        <v>3.137931034</v>
+        <f t="shared" si="10"/>
+        <v>-10.82045184</v>
       </c>
       <c r="V26" s="4">
         <f t="shared" si="11"/>
@@ -2725,7 +2725,7 @@
         <v>25</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="O27" s="4">
@@ -2737,15 +2737,15 @@
         <v>21.42857143</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>20.68965517</v>
       </c>
       <c r="T27" s="1">
         <v>26.0</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="1"/>
-        <v>5.310344828</v>
+        <f t="shared" si="10"/>
+        <v>-20.42440318</v>
       </c>
       <c r="V27" s="4">
         <f t="shared" si="11"/>
@@ -2796,7 +2796,7 @@
         <v>16</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="O28" s="4">
@@ -2808,15 +2808,15 @@
         <v>16.07142857</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15.51724138</v>
       </c>
       <c r="T28" s="1">
         <v>17.0</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="1"/>
-        <v>1.482758621</v>
+        <f t="shared" si="10"/>
+        <v>-8.722109533</v>
       </c>
       <c r="V28" s="4">
         <f t="shared" si="11"/>
@@ -2867,7 +2867,7 @@
         <v>7</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="O29" s="4">
@@ -2879,15 +2879,15 @@
         <v>10.71428571</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10.34482759</v>
       </c>
       <c r="T29" s="1">
         <v>8.0</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="1"/>
-        <v>-2.344827586</v>
+        <f t="shared" si="10"/>
+        <v>29.31034483</v>
       </c>
       <c r="V29" s="4">
         <f t="shared" si="11"/>
@@ -2939,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="O30" s="4">
@@ -2951,15 +2951,15 @@
         <v>5.357142857</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.172413793</v>
       </c>
       <c r="T30" s="1">
         <v>3.0</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="1"/>
-        <v>-2.172413793</v>
+        <f t="shared" si="10"/>
+        <v>72.4137931</v>
       </c>
       <c r="V30" s="4">
         <f t="shared" si="11"/>
@@ -2973,54 +2973,55 @@
       <c r="B31" s="1">
         <v>9.0</v>
       </c>
+      <c r="C31" s="1">
+        <v>13.0</v>
+      </c>
       <c r="D31" s="1">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F31" s="1">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G31" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H31" s="1">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I31" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J31" s="1">
-        <v>0.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2.0</v>
       </c>
       <c r="L31" s="1">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="M31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O31" s="4">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>13+13+13+13+13</f>
+        <v>65</v>
+      </c>
+      <c r="N31" s="4">
+        <f>65+67+54</f>
+        <v>186</v>
+      </c>
+      <c r="O31" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>186.0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>192.0</v>
       </c>
       <c r="T31" s="1">
         <v>0.0</v>
-      </c>
-      <c r="U31" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="V31" s="4">
         <f t="shared" si="11"/>
@@ -3031,181 +3032,2150 @@
       <c r="A32" s="2">
         <v>44610.0</v>
       </c>
+      <c r="C32" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" ref="M32:M39" si="21">M31-(C32+E32+G32+I32+K32)</f>
+        <v>56</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" ref="N32:N44" si="22">N31-(M31-M32)</f>
+        <v>177</v>
+      </c>
+      <c r="O32" s="4">
+        <f t="shared" ref="O32:O44" si="23">O31-65/13</f>
+        <v>60</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" ref="P32:P67" si="24">P31-186/36</f>
+        <v>180.8333333</v>
+      </c>
+      <c r="Q32" s="4">
+        <f t="shared" ref="Q32:Q67" si="25">Q31-192/36</f>
+        <v>186.6666667</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" ref="R32:R67" si="26">((N32-Q32)/Q32)*100</f>
+        <v>-5.178571429</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
         <v>44611.0</v>
       </c>
+      <c r="C33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="21"/>
+        <v>53</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="22"/>
+        <v>174</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="23"/>
+        <v>55</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="24"/>
+        <v>175.6666667</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" si="25"/>
+        <v>181.3333333</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="26"/>
+        <v>-4.044117647</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
         <v>44612.0</v>
       </c>
+      <c r="C34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="21"/>
+        <v>53</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="22"/>
+        <v>174</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="24"/>
+        <v>170.5</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="25"/>
+        <v>176</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="26"/>
+        <v>-1.136363636</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
         <v>44613.0</v>
       </c>
+      <c r="C35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="22"/>
+        <v>170</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="23"/>
+        <v>45</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="24"/>
+        <v>165.3333333</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="25"/>
+        <v>170.6666667</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="26"/>
+        <v>-0.390625</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
         <v>44614.0</v>
       </c>
+      <c r="C36" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="22"/>
+        <v>160</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="23"/>
+        <v>40</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="24"/>
+        <v>160.1666667</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" si="25"/>
+        <v>165.3333333</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="26"/>
+        <v>-3.225806452</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
         <v>44615.0</v>
       </c>
+      <c r="C37" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="22"/>
+        <v>151</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" si="24"/>
+        <v>155</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="25"/>
+        <v>160</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="26"/>
+        <v>-5.625</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
         <v>44616.0</v>
       </c>
+      <c r="C38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="22"/>
+        <v>141</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="23"/>
+        <v>30</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="24"/>
+        <v>149.8333333</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="25"/>
+        <v>154.6666667</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="26"/>
+        <v>-8.836206897</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
         <v>44617.0</v>
       </c>
+      <c r="C39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="22"/>
+        <v>137</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" si="24"/>
+        <v>144.6666667</v>
+      </c>
+      <c r="Q39" s="4">
+        <f t="shared" si="25"/>
+        <v>149.3333333</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" si="26"/>
+        <v>-8.258928571</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
         <v>44618.0</v>
       </c>
+      <c r="C40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" ref="M40:M44" si="27">M39-(C40+E40+G340+I40+K40)</f>
+        <v>16</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="22"/>
+        <v>137</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="24"/>
+        <v>139.5</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="25"/>
+        <v>144</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="26"/>
+        <v>-4.861111111</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
         <v>44619.0</v>
       </c>
+      <c r="C41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="22"/>
+        <v>137</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="24"/>
+        <v>134.3333333</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" si="25"/>
+        <v>138.6666667</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="26"/>
+        <v>-1.201923077</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
         <v>44620.0</v>
       </c>
+      <c r="C42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="22"/>
+        <v>133</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="24"/>
+        <v>129.1666667</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" si="25"/>
+        <v>133.3333333</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="26"/>
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
         <v>44621.0</v>
       </c>
+      <c r="C43" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="22"/>
+        <v>128</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="24"/>
+        <v>124</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" si="25"/>
+        <v>128</v>
+      </c>
+      <c r="R43" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
         <v>44622.0</v>
       </c>
+      <c r="C44" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="22"/>
+        <v>121</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" si="24"/>
+        <v>118.8333333</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" si="25"/>
+        <v>122.6666667</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" si="26"/>
+        <v>-1.358695652</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
         <v>44623.0</v>
       </c>
+      <c r="B45" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="M45" s="1">
+        <f>13+13+14+14+13</f>
+        <v>67</v>
+      </c>
+      <c r="N45" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="P45" s="4">
+        <f t="shared" si="24"/>
+        <v>113.6666667</v>
+      </c>
+      <c r="Q45" s="4">
+        <f t="shared" si="25"/>
+        <v>117.3333333</v>
+      </c>
+      <c r="R45" s="4">
+        <f t="shared" si="26"/>
+        <v>3.125</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
         <v>44624.0</v>
       </c>
+      <c r="C46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" ref="M46:M49" si="28">D46+F46+H46+J46+L46</f>
+        <v>50</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" ref="N46:N58" si="29">N45-(M45-M46)</f>
+        <v>104</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" ref="O46:O58" si="30">O45-67/13</f>
+        <v>61.84615385</v>
+      </c>
+      <c r="P46" s="4">
+        <f t="shared" si="24"/>
+        <v>108.5</v>
+      </c>
+      <c r="Q46" s="4">
+        <f t="shared" si="25"/>
+        <v>112</v>
+      </c>
+      <c r="R46" s="4">
+        <f t="shared" si="26"/>
+        <v>-7.142857143</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
         <v>44625.0</v>
       </c>
+      <c r="C47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M47" s="4">
+        <f t="shared" si="28"/>
+        <v>49</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" si="29"/>
+        <v>103</v>
+      </c>
+      <c r="O47" s="4">
+        <f t="shared" si="30"/>
+        <v>56.69230769</v>
+      </c>
+      <c r="P47" s="4">
+        <f t="shared" si="24"/>
+        <v>103.3333333</v>
+      </c>
+      <c r="Q47" s="4">
+        <f t="shared" si="25"/>
+        <v>106.6666667</v>
+      </c>
+      <c r="R47" s="4">
+        <f t="shared" si="26"/>
+        <v>-3.4375</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
         <v>44626.0</v>
       </c>
+      <c r="C48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="28"/>
+        <v>48</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="29"/>
+        <v>102</v>
+      </c>
+      <c r="O48" s="4">
+        <f t="shared" si="30"/>
+        <v>51.53846154</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="24"/>
+        <v>98.16666667</v>
+      </c>
+      <c r="Q48" s="4">
+        <f t="shared" si="25"/>
+        <v>101.3333333</v>
+      </c>
+      <c r="R48" s="4">
+        <f t="shared" si="26"/>
+        <v>0.6578947368</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
         <v>44627.0</v>
       </c>
+      <c r="C49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="28"/>
+        <v>42</v>
+      </c>
+      <c r="N49" s="4">
+        <f t="shared" si="29"/>
+        <v>96</v>
+      </c>
+      <c r="O49" s="4">
+        <f t="shared" si="30"/>
+        <v>46.38461538</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="24"/>
+        <v>93</v>
+      </c>
+      <c r="Q49" s="4">
+        <f t="shared" si="25"/>
+        <v>96</v>
+      </c>
+      <c r="R49" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
         <v>44628.0</v>
       </c>
+      <c r="C50" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="N50" s="4">
+        <f t="shared" si="29"/>
+        <v>94</v>
+      </c>
+      <c r="O50" s="4">
+        <f t="shared" si="30"/>
+        <v>41.23076923</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="24"/>
+        <v>87.83333333</v>
+      </c>
+      <c r="Q50" s="4">
+        <f t="shared" si="25"/>
+        <v>90.66666667</v>
+      </c>
+      <c r="R50" s="4">
+        <f t="shared" si="26"/>
+        <v>3.676470588</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
         <v>44629.0</v>
       </c>
+      <c r="C51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" si="29"/>
+        <v>91</v>
+      </c>
+      <c r="O51" s="4">
+        <f t="shared" si="30"/>
+        <v>36.07692308</v>
+      </c>
+      <c r="P51" s="4">
+        <f t="shared" si="24"/>
+        <v>82.66666667</v>
+      </c>
+      <c r="Q51" s="4">
+        <f t="shared" si="25"/>
+        <v>85.33333333</v>
+      </c>
+      <c r="R51" s="4">
+        <f t="shared" si="26"/>
+        <v>6.640625</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
         <v>44630.0</v>
       </c>
+      <c r="C52" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="N52" s="4">
+        <f t="shared" si="29"/>
+        <v>81</v>
+      </c>
+      <c r="O52" s="4">
+        <f t="shared" si="30"/>
+        <v>30.92307692</v>
+      </c>
+      <c r="P52" s="4">
+        <f t="shared" si="24"/>
+        <v>77.5</v>
+      </c>
+      <c r="Q52" s="4">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+      <c r="R52" s="4">
+        <f t="shared" si="26"/>
+        <v>1.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
         <v>44631.0</v>
       </c>
+      <c r="C53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="N53" s="4">
+        <f t="shared" si="29"/>
+        <v>79</v>
+      </c>
+      <c r="O53" s="4">
+        <f t="shared" si="30"/>
+        <v>25.76923077</v>
+      </c>
+      <c r="P53" s="4">
+        <f t="shared" si="24"/>
+        <v>72.33333333</v>
+      </c>
+      <c r="Q53" s="4">
+        <f t="shared" si="25"/>
+        <v>74.66666667</v>
+      </c>
+      <c r="R53" s="4">
+        <f t="shared" si="26"/>
+        <v>5.803571429</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
         <v>44632.0</v>
       </c>
+      <c r="C54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="N54" s="4">
+        <f t="shared" si="29"/>
+        <v>74</v>
+      </c>
+      <c r="O54" s="4">
+        <f t="shared" si="30"/>
+        <v>20.61538462</v>
+      </c>
+      <c r="P54" s="4">
+        <f t="shared" si="24"/>
+        <v>67.16666667</v>
+      </c>
+      <c r="Q54" s="4">
+        <f t="shared" si="25"/>
+        <v>69.33333333</v>
+      </c>
+      <c r="R54" s="4">
+        <f t="shared" si="26"/>
+        <v>6.730769231</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
         <v>44633.0</v>
       </c>
+      <c r="C55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="N55" s="4">
+        <f t="shared" si="29"/>
+        <v>74</v>
+      </c>
+      <c r="O55" s="4">
+        <f t="shared" si="30"/>
+        <v>15.46153846</v>
+      </c>
+      <c r="P55" s="4">
+        <f t="shared" si="24"/>
+        <v>62</v>
+      </c>
+      <c r="Q55" s="4">
+        <f t="shared" si="25"/>
+        <v>64</v>
+      </c>
+      <c r="R55" s="4">
+        <f t="shared" si="26"/>
+        <v>15.625</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
         <v>44634.0</v>
       </c>
+      <c r="C56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M56" s="4">
+        <f t="shared" ref="M56:M58" si="31">D56+F56+H56+J56+L56</f>
+        <v>7</v>
+      </c>
+      <c r="N56" s="4">
+        <f t="shared" si="29"/>
+        <v>61</v>
+      </c>
+      <c r="O56" s="4">
+        <f t="shared" si="30"/>
+        <v>10.30769231</v>
+      </c>
+      <c r="P56" s="4">
+        <f t="shared" si="24"/>
+        <v>56.83333333</v>
+      </c>
+      <c r="Q56" s="4">
+        <f t="shared" si="25"/>
+        <v>58.66666667</v>
+      </c>
+      <c r="R56" s="4">
+        <f t="shared" si="26"/>
+        <v>3.977272727</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
         <v>44635.0</v>
       </c>
+      <c r="C57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M57" s="4">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="N57" s="4">
+        <f t="shared" si="29"/>
+        <v>58</v>
+      </c>
+      <c r="O57" s="4">
+        <f t="shared" si="30"/>
+        <v>5.153846154</v>
+      </c>
+      <c r="P57" s="4">
+        <f t="shared" si="24"/>
+        <v>51.66666667</v>
+      </c>
+      <c r="Q57" s="4">
+        <f t="shared" si="25"/>
+        <v>53.33333333</v>
+      </c>
+      <c r="R57" s="4">
+        <f t="shared" si="26"/>
+        <v>8.75</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
         <v>44636.0</v>
       </c>
+      <c r="C58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G58" s="1">
+        <f>G57-10/13</f>
+        <v>-0.7692307692</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I58" s="1">
+        <f>I57-11/13</f>
+        <v>0.1538461538</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="4">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="O58" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <f t="shared" si="24"/>
+        <v>46.5</v>
+      </c>
+      <c r="Q58" s="4">
+        <f t="shared" si="25"/>
+        <v>48</v>
+      </c>
+      <c r="R58" s="4">
+        <f t="shared" si="26"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
         <v>44637.0</v>
       </c>
+      <c r="B59" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="M59" s="4">
+        <f>11+10+10+10+13</f>
+        <v>54</v>
+      </c>
+      <c r="N59" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="P59" s="4">
+        <f t="shared" si="24"/>
+        <v>41.33333333</v>
+      </c>
+      <c r="Q59" s="4">
+        <f t="shared" si="25"/>
+        <v>42.66666667</v>
+      </c>
+      <c r="R59" s="4">
+        <f t="shared" si="26"/>
+        <v>26.5625</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
         <v>44638.0</v>
       </c>
+      <c r="C60" s="1">
+        <f t="shared" ref="C60:C67" si="32">C59-11/8</f>
+        <v>9.625</v>
+      </c>
+      <c r="D60" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" ref="E60:E67" si="33">E59-10/8</f>
+        <v>8.75</v>
+      </c>
+      <c r="F60" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" ref="K60:K67" si="34">K59-13/8</f>
+        <v>11.375</v>
+      </c>
+      <c r="L60" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" ref="M60:M67" si="35">D60+F60+H60+J60+L60</f>
+        <v>45</v>
+      </c>
+      <c r="N60" s="4">
+        <f t="shared" ref="N60:N67" si="36">N59-(M59-M60)</f>
+        <v>45</v>
+      </c>
+      <c r="O60" s="4">
+        <f t="shared" ref="O60:O67" si="37">O59-54/8</f>
+        <v>47.25</v>
+      </c>
+      <c r="P60" s="4">
+        <f t="shared" si="24"/>
+        <v>36.16666667</v>
+      </c>
+      <c r="Q60" s="4">
+        <f t="shared" si="25"/>
+        <v>37.33333333</v>
+      </c>
+      <c r="R60" s="4">
+        <f t="shared" si="26"/>
+        <v>20.53571429</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
         <v>44639.0</v>
       </c>
+      <c r="C61" s="1">
+        <f t="shared" si="32"/>
+        <v>8.25</v>
+      </c>
+      <c r="D61" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="33"/>
+        <v>7.5</v>
+      </c>
+      <c r="F61" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="34"/>
+        <v>9.75</v>
+      </c>
+      <c r="L61" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M61" s="4">
+        <f t="shared" si="35"/>
+        <v>43</v>
+      </c>
+      <c r="N61" s="4">
+        <f t="shared" si="36"/>
+        <v>43</v>
+      </c>
+      <c r="O61" s="4">
+        <f t="shared" si="37"/>
+        <v>40.5</v>
+      </c>
+      <c r="P61" s="4">
+        <f t="shared" si="24"/>
+        <v>31</v>
+      </c>
+      <c r="Q61" s="4">
+        <f t="shared" si="25"/>
+        <v>32</v>
+      </c>
+      <c r="R61" s="4">
+        <f t="shared" si="26"/>
+        <v>34.375</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
         <v>44640.0</v>
       </c>
+      <c r="C62" s="1">
+        <f t="shared" si="32"/>
+        <v>6.875</v>
+      </c>
+      <c r="D62" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="33"/>
+        <v>6.25</v>
+      </c>
+      <c r="F62" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="34"/>
+        <v>8.125</v>
+      </c>
+      <c r="L62" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M62" s="4">
+        <f t="shared" si="35"/>
+        <v>42</v>
+      </c>
+      <c r="N62" s="4">
+        <f t="shared" si="36"/>
+        <v>42</v>
+      </c>
+      <c r="O62" s="4">
+        <f t="shared" si="37"/>
+        <v>33.75</v>
+      </c>
+      <c r="P62" s="4">
+        <f t="shared" si="24"/>
+        <v>25.83333333</v>
+      </c>
+      <c r="Q62" s="4">
+        <f t="shared" si="25"/>
+        <v>26.66666667</v>
+      </c>
+      <c r="R62" s="4">
+        <f t="shared" si="26"/>
+        <v>57.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
         <v>44641.0</v>
       </c>
+      <c r="C63" s="1">
+        <f t="shared" si="32"/>
+        <v>5.5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="F63" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="34"/>
+        <v>6.5</v>
+      </c>
+      <c r="L63" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="M63" s="4">
+        <f t="shared" si="35"/>
+        <v>34</v>
+      </c>
+      <c r="N63" s="4">
+        <f t="shared" si="36"/>
+        <v>34</v>
+      </c>
+      <c r="O63" s="4">
+        <f t="shared" si="37"/>
+        <v>27</v>
+      </c>
+      <c r="P63" s="4">
+        <f t="shared" si="24"/>
+        <v>20.66666667</v>
+      </c>
+      <c r="Q63" s="4">
+        <f t="shared" si="25"/>
+        <v>21.33333333</v>
+      </c>
+      <c r="R63" s="4">
+        <f t="shared" si="26"/>
+        <v>59.375</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
         <v>44642.0</v>
       </c>
+      <c r="C64" s="1">
+        <f t="shared" si="32"/>
+        <v>4.125</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="33"/>
+        <v>3.75</v>
+      </c>
+      <c r="F64" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K64" s="1">
+        <f t="shared" si="34"/>
+        <v>4.875</v>
+      </c>
+      <c r="L64" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="M64" s="4">
+        <f t="shared" si="35"/>
+        <v>24</v>
+      </c>
+      <c r="N64" s="4">
+        <f t="shared" si="36"/>
+        <v>24</v>
+      </c>
+      <c r="O64" s="4">
+        <f t="shared" si="37"/>
+        <v>20.25</v>
+      </c>
+      <c r="P64" s="4">
+        <f t="shared" si="24"/>
+        <v>15.5</v>
+      </c>
+      <c r="Q64" s="4">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="R64" s="4">
+        <f t="shared" si="26"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
         <v>44643.0</v>
       </c>
+      <c r="C65" s="1">
+        <f t="shared" si="32"/>
+        <v>2.75</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="33"/>
+        <v>2.5</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="34"/>
+        <v>3.25</v>
+      </c>
+      <c r="L65" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M65" s="4">
+        <f t="shared" si="35"/>
+        <v>15</v>
+      </c>
+      <c r="N65" s="4">
+        <f t="shared" si="36"/>
+        <v>15</v>
+      </c>
+      <c r="O65" s="4">
+        <f t="shared" si="37"/>
+        <v>13.5</v>
+      </c>
+      <c r="P65" s="4">
+        <f t="shared" si="24"/>
+        <v>10.33333333</v>
+      </c>
+      <c r="Q65" s="4">
+        <f t="shared" si="25"/>
+        <v>10.66666667</v>
+      </c>
+      <c r="R65" s="4">
+        <f t="shared" si="26"/>
+        <v>40.625</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
         <v>44644.0</v>
       </c>
+      <c r="C66" s="1">
+        <f t="shared" si="32"/>
+        <v>1.375</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="33"/>
+        <v>1.25</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" si="34"/>
+        <v>1.625</v>
+      </c>
+      <c r="L66" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M66" s="4">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="N66" s="4">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+      <c r="O66" s="4">
+        <f t="shared" si="37"/>
+        <v>6.75</v>
+      </c>
+      <c r="P66" s="4">
+        <f t="shared" si="24"/>
+        <v>5.166666667</v>
+      </c>
+      <c r="Q66" s="4">
+        <f t="shared" si="25"/>
+        <v>5.333333333</v>
+      </c>
+      <c r="R66" s="4">
+        <f t="shared" si="26"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
         <v>44645.0</v>
       </c>
+      <c r="B67" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M67" s="4">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="4">
+        <f t="shared" si="26"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
@@ -3255,6 +5225,9 @@
     <row r="77">
       <c r="A77" s="2">
         <v>44655.0</v>
+      </c>
+      <c r="B77" s="1">
+        <v>12.0</v>
       </c>
     </row>
     <row r="78">

--- a/Scrum/491B Breakdown.xlsx
+++ b/Scrum/491B Breakdown.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
   <si>
     <t>Sprint</t>
   </si>
@@ -60,15 +60,55 @@
   <si>
     <t>team estimated total</t>
   </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>wknd</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Plan/Retro</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Plan Retro</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Actual 25</t>
+  </si>
+  <si>
+    <t>Actual 16</t>
+  </si>
+  <si>
+    <t>Actual 18</t>
+  </si>
+  <si>
+    <t>Actual 23</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -85,13 +125,32 @@
       <color theme="1"/>
       <name val="Inconsolata"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -114,6 +173,54 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -214,11 +321,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="900629765"/>
-        <c:axId val="599935103"/>
+        <c:axId val="550815487"/>
+        <c:axId val="1321147377"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="900629765"/>
+        <c:axId val="550815487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -270,10 +377,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599935103"/>
+        <c:crossAx val="1321147377"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599935103"/>
+        <c:axId val="1321147377"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,7 +455,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="900629765"/>
+        <c:crossAx val="550815487"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -466,11 +573,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1633196649"/>
-        <c:axId val="549729758"/>
+        <c:axId val="1475833849"/>
+        <c:axId val="1370628192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1633196649"/>
+        <c:axId val="1475833849"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,10 +629,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549729758"/>
+        <c:crossAx val="1370628192"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="549729758"/>
+        <c:axId val="1370628192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-15.0"/>
@@ -601,7 +708,228 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633196649"/>
+        <c:crossAx val="1475833849"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Project Percent Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$117:$A$356</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$117:$R$356</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="310269660"/>
+        <c:axId val="1831454759"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="310269660"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1831454759"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1831454759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Percent Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310269660"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -674,6 +1002,31 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -882,7 +1235,12 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -5221,6 +5579,9 @@
       <c r="A76" s="2">
         <v>44654.0</v>
       </c>
+      <c r="O76" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
@@ -5229,156 +5590,1268 @@
       <c r="B77" s="1">
         <v>12.0</v>
       </c>
+      <c r="C77" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="M77" s="4">
+        <f t="shared" ref="M77:M101" si="38">D77+F77+H77+J77+L77</f>
+        <v>63</v>
+      </c>
+      <c r="N77" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="O77" s="4">
+        <f>((N77-M77)/M77)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
         <v>44656.0</v>
       </c>
+      <c r="C78" s="4">
+        <f t="shared" ref="C78:C86" si="39">C77-12/9</f>
+        <v>10.66666667</v>
+      </c>
+      <c r="D78" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="K78" s="4">
+        <f t="shared" ref="K78:K86" si="40">K77-15/9</f>
+        <v>13.33333333</v>
+      </c>
+      <c r="L78" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="M78" s="4">
+        <f t="shared" si="38"/>
+        <v>58</v>
+      </c>
+      <c r="N78" s="4">
+        <f t="shared" ref="N78:N86" si="41">N77-63/9</f>
+        <v>56</v>
+      </c>
+      <c r="O78" s="4">
+        <f t="shared" ref="O78:O85" si="42">((N78-M78)/M78)*-100</f>
+        <v>3.448275862</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
         <v>44657.0</v>
       </c>
+      <c r="C79" s="4">
+        <f t="shared" si="39"/>
+        <v>9.333333333</v>
+      </c>
+      <c r="D79" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K79" s="4">
+        <f t="shared" si="40"/>
+        <v>11.66666667</v>
+      </c>
+      <c r="L79" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="M79" s="4">
+        <f t="shared" si="38"/>
+        <v>53</v>
+      </c>
+      <c r="N79" s="4">
+        <f t="shared" si="41"/>
+        <v>49</v>
+      </c>
+      <c r="O79" s="4">
+        <f t="shared" si="42"/>
+        <v>7.547169811</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
         <v>44658.0</v>
       </c>
+      <c r="C80" s="4">
+        <f t="shared" si="39"/>
+        <v>8</v>
+      </c>
+      <c r="D80" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K80" s="4">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="L80" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="M80" s="4">
+        <f t="shared" si="38"/>
+        <v>46</v>
+      </c>
+      <c r="N80" s="4">
+        <f t="shared" si="41"/>
+        <v>42</v>
+      </c>
+      <c r="O80" s="4">
+        <f t="shared" si="42"/>
+        <v>8.695652174</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
         <v>44659.0</v>
       </c>
+      <c r="C81" s="4">
+        <f t="shared" si="39"/>
+        <v>6.666666667</v>
+      </c>
+      <c r="D81" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K81" s="4">
+        <f t="shared" si="40"/>
+        <v>8.333333333</v>
+      </c>
+      <c r="L81" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M81" s="4">
+        <f t="shared" si="38"/>
+        <v>39</v>
+      </c>
+      <c r="N81" s="4">
+        <f t="shared" si="41"/>
+        <v>35</v>
+      </c>
+      <c r="O81" s="4">
+        <f t="shared" si="42"/>
+        <v>10.25641026</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
         <v>44660.0</v>
       </c>
+      <c r="B82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="39"/>
+        <v>5.333333333</v>
+      </c>
+      <c r="D82" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K82" s="4">
+        <f t="shared" si="40"/>
+        <v>6.666666667</v>
+      </c>
+      <c r="L82" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="M82" s="4">
+        <f t="shared" si="38"/>
+        <v>32</v>
+      </c>
+      <c r="N82" s="4">
+        <f t="shared" si="41"/>
+        <v>28</v>
+      </c>
+      <c r="O82" s="4">
+        <f t="shared" si="42"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
         <v>44661.0</v>
       </c>
+      <c r="B83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="D83" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K83" s="4">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="L83" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M83" s="4">
+        <f t="shared" si="38"/>
+        <v>25</v>
+      </c>
+      <c r="N83" s="4">
+        <f t="shared" si="41"/>
+        <v>21</v>
+      </c>
+      <c r="O83" s="4">
+        <f t="shared" si="42"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
         <v>44662.0</v>
       </c>
+      <c r="C84" s="4">
+        <f t="shared" si="39"/>
+        <v>2.666666667</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K84" s="4">
+        <f t="shared" si="40"/>
+        <v>3.333333333</v>
+      </c>
+      <c r="L84" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M84" s="4">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="N84" s="4">
+        <f t="shared" si="41"/>
+        <v>14</v>
+      </c>
+      <c r="O84" s="4">
+        <f t="shared" si="42"/>
+        <v>17.64705882</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
         <v>44663.0</v>
       </c>
+      <c r="C85" s="4">
+        <f t="shared" si="39"/>
+        <v>1.333333333</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K85" s="4">
+        <f t="shared" si="40"/>
+        <v>1.666666667</v>
+      </c>
+      <c r="L85" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M85" s="4">
+        <f t="shared" si="38"/>
+        <v>10</v>
+      </c>
+      <c r="N85" s="4">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="O85" s="4">
+        <f t="shared" si="42"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
         <v>44664.0</v>
       </c>
+      <c r="C86" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K86" s="4">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M86" s="4">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
         <v>44665.0</v>
       </c>
+      <c r="B87" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M87" s="4">
+        <f t="shared" si="38"/>
+        <v>60</v>
+      </c>
+      <c r="N87" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="O87" s="4">
+        <f t="shared" ref="O87:O99" si="43">((N87-M87)/M87)*-100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
         <v>44666.0</v>
       </c>
+      <c r="C88" s="4">
+        <f t="shared" ref="C88:C100" si="44">C87-10/13</f>
+        <v>9.230769231</v>
+      </c>
+      <c r="D88" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E88" s="4">
+        <f t="shared" ref="E88:E100" si="45">E87-20/13</f>
+        <v>18.46153846</v>
+      </c>
+      <c r="F88" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M88" s="4">
+        <f t="shared" si="38"/>
+        <v>55</v>
+      </c>
+      <c r="N88" s="4">
+        <f t="shared" ref="N88:N100" si="46">N87-60/13</f>
+        <v>55.38461538</v>
+      </c>
+      <c r="O88" s="4">
+        <f t="shared" si="43"/>
+        <v>-0.6993006993</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
         <v>44667.0</v>
       </c>
+      <c r="C89" s="4">
+        <f t="shared" si="44"/>
+        <v>8.461538462</v>
+      </c>
+      <c r="D89" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E89" s="4">
+        <f t="shared" si="45"/>
+        <v>16.92307692</v>
+      </c>
+      <c r="F89" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="L89" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M89" s="4">
+        <f t="shared" si="38"/>
+        <v>53</v>
+      </c>
+      <c r="N89" s="4">
+        <f t="shared" si="46"/>
+        <v>50.76923077</v>
+      </c>
+      <c r="O89" s="4">
+        <f t="shared" si="43"/>
+        <v>4.208998549</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
         <v>44668.0</v>
       </c>
+      <c r="C90" s="4">
+        <f t="shared" si="44"/>
+        <v>7.692307692</v>
+      </c>
+      <c r="D90" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" si="45"/>
+        <v>15.38461538</v>
+      </c>
+      <c r="F90" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M90" s="4">
+        <f t="shared" si="38"/>
+        <v>50</v>
+      </c>
+      <c r="N90" s="4">
+        <f t="shared" si="46"/>
+        <v>46.15384615</v>
+      </c>
+      <c r="O90" s="4">
+        <f t="shared" si="43"/>
+        <v>7.692307692</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
         <v>44669.0</v>
       </c>
+      <c r="C91" s="4">
+        <f t="shared" si="44"/>
+        <v>6.923076923</v>
+      </c>
+      <c r="D91" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E91" s="4">
+        <f t="shared" si="45"/>
+        <v>13.84615385</v>
+      </c>
+      <c r="F91" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L91" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="M91" s="4">
+        <f t="shared" si="38"/>
+        <v>46</v>
+      </c>
+      <c r="N91" s="4">
+        <f t="shared" si="46"/>
+        <v>41.53846154</v>
+      </c>
+      <c r="O91" s="4">
+        <f t="shared" si="43"/>
+        <v>9.698996656</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
         <v>44670.0</v>
       </c>
+      <c r="C92" s="4">
+        <f t="shared" si="44"/>
+        <v>6.153846154</v>
+      </c>
+      <c r="D92" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E92" s="4">
+        <f t="shared" si="45"/>
+        <v>12.30769231</v>
+      </c>
+      <c r="F92" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M92" s="4">
+        <f t="shared" si="38"/>
+        <v>40</v>
+      </c>
+      <c r="N92" s="4">
+        <f t="shared" si="46"/>
+        <v>36.92307692</v>
+      </c>
+      <c r="O92" s="4">
+        <f t="shared" si="43"/>
+        <v>7.692307692</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
         <v>44671.0</v>
       </c>
+      <c r="C93" s="4">
+        <f t="shared" si="44"/>
+        <v>5.384615385</v>
+      </c>
+      <c r="D93" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E93" s="4">
+        <f t="shared" si="45"/>
+        <v>10.76923077</v>
+      </c>
+      <c r="F93" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="M93" s="4">
+        <f t="shared" si="38"/>
+        <v>37</v>
+      </c>
+      <c r="N93" s="4">
+        <f t="shared" si="46"/>
+        <v>32.30769231</v>
+      </c>
+      <c r="O93" s="4">
+        <f t="shared" si="43"/>
+        <v>12.68191268</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
         <v>44672.0</v>
       </c>
+      <c r="C94" s="4">
+        <f t="shared" si="44"/>
+        <v>4.615384615</v>
+      </c>
+      <c r="D94" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E94" s="4">
+        <f t="shared" si="45"/>
+        <v>9.230769231</v>
+      </c>
+      <c r="F94" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="M94" s="4">
+        <f t="shared" si="38"/>
+        <v>34</v>
+      </c>
+      <c r="N94" s="4">
+        <f t="shared" si="46"/>
+        <v>27.69230769</v>
+      </c>
+      <c r="O94" s="4">
+        <f t="shared" si="43"/>
+        <v>18.5520362</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
         <v>44673.0</v>
       </c>
+      <c r="C95" s="4">
+        <f t="shared" si="44"/>
+        <v>3.846153846</v>
+      </c>
+      <c r="D95" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E95" s="4">
+        <f t="shared" si="45"/>
+        <v>7.692307692</v>
+      </c>
+      <c r="F95" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L95" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M95" s="4">
+        <f t="shared" si="38"/>
+        <v>28</v>
+      </c>
+      <c r="N95" s="4">
+        <f t="shared" si="46"/>
+        <v>23.07692308</v>
+      </c>
+      <c r="O95" s="4">
+        <f t="shared" si="43"/>
+        <v>17.58241758</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
         <v>44674.0</v>
       </c>
+      <c r="C96" s="4">
+        <f t="shared" si="44"/>
+        <v>3.076923077</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" si="45"/>
+        <v>6.153846154</v>
+      </c>
+      <c r="F96" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M96" s="4">
+        <f t="shared" si="38"/>
+        <v>22</v>
+      </c>
+      <c r="N96" s="4">
+        <f t="shared" si="46"/>
+        <v>18.46153846</v>
+      </c>
+      <c r="O96" s="4">
+        <f t="shared" si="43"/>
+        <v>16.08391608</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
         <v>44675.0</v>
       </c>
+      <c r="C97" s="4">
+        <f t="shared" si="44"/>
+        <v>2.307692308</v>
+      </c>
+      <c r="D97" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E97" s="4">
+        <f t="shared" si="45"/>
+        <v>4.615384615</v>
+      </c>
+      <c r="F97" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M97" s="4">
+        <f t="shared" si="38"/>
+        <v>16</v>
+      </c>
+      <c r="N97" s="4">
+        <f t="shared" si="46"/>
+        <v>13.84615385</v>
+      </c>
+      <c r="O97" s="4">
+        <f t="shared" si="43"/>
+        <v>13.46153846</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
         <v>44676.0</v>
       </c>
+      <c r="C98" s="4">
+        <f t="shared" si="44"/>
+        <v>1.538461538</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E98" s="4">
+        <f t="shared" si="45"/>
+        <v>3.076923077</v>
+      </c>
+      <c r="F98" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M98" s="4">
+        <f t="shared" si="38"/>
+        <v>11</v>
+      </c>
+      <c r="N98" s="4">
+        <f t="shared" si="46"/>
+        <v>9.230769231</v>
+      </c>
+      <c r="O98" s="4">
+        <f t="shared" si="43"/>
+        <v>16.08391608</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
         <v>44677.0</v>
       </c>
+      <c r="C99" s="4">
+        <f t="shared" si="44"/>
+        <v>0.7692307692</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E99" s="4">
+        <f t="shared" si="45"/>
+        <v>1.538461538</v>
+      </c>
+      <c r="F99" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M99" s="4">
+        <f t="shared" si="38"/>
+        <v>7</v>
+      </c>
+      <c r="N99" s="4">
+        <f t="shared" si="46"/>
+        <v>4.615384615</v>
+      </c>
+      <c r="O99" s="4">
+        <f t="shared" si="43"/>
+        <v>34.06593407</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
         <v>44678.0</v>
       </c>
+      <c r="C100" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M100" s="4">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="N100" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
         <v>44679.0</v>
       </c>
+      <c r="B101" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="L101" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M101" s="4">
+        <f t="shared" si="38"/>
+        <v>55</v>
+      </c>
+      <c r="N101" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="O101" s="4">
+        <f t="shared" ref="O101:O106" si="47">((N101-M101)/M101)*-100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
         <v>44680.0</v>
       </c>
+      <c r="C102" s="4">
+        <f t="shared" ref="C102:C107" si="48">C101-10/6</f>
+        <v>8.333333333</v>
+      </c>
+      <c r="D102" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E102" s="4">
+        <f t="shared" ref="E102:E107" si="49">E101-15/6</f>
+        <v>12.5</v>
+      </c>
+      <c r="F102" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M102" s="4">
+        <f t="shared" ref="M102:M107" si="50">D102+F102+G102+I102+K102</f>
+        <v>48</v>
+      </c>
+      <c r="N102" s="4">
+        <f t="shared" ref="N102:N107" si="51">N101-55/6</f>
+        <v>45.83333333</v>
+      </c>
+      <c r="O102" s="4">
+        <f t="shared" si="47"/>
+        <v>4.513888889</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
         <v>44681.0</v>
       </c>
+      <c r="C103" s="4">
+        <f t="shared" si="48"/>
+        <v>6.666666667</v>
+      </c>
+      <c r="D103" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E103" s="4">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="F103" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K103" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M103" s="4">
+        <f t="shared" si="50"/>
+        <v>38</v>
+      </c>
+      <c r="N103" s="4">
+        <f t="shared" si="51"/>
+        <v>36.66666667</v>
+      </c>
+      <c r="O103" s="4">
+        <f t="shared" si="47"/>
+        <v>3.50877193</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
         <v>44682.0</v>
       </c>
+      <c r="C104" s="4">
+        <f t="shared" si="48"/>
+        <v>5</v>
+      </c>
+      <c r="D104" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" si="49"/>
+        <v>7.5</v>
+      </c>
+      <c r="F104" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K104" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M104" s="4">
+        <f t="shared" si="50"/>
+        <v>30</v>
+      </c>
+      <c r="N104" s="4">
+        <f t="shared" si="51"/>
+        <v>27.5</v>
+      </c>
+      <c r="O104" s="4">
+        <f t="shared" si="47"/>
+        <v>8.333333333</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
         <v>44683.0</v>
       </c>
+      <c r="C105" s="4">
+        <f t="shared" si="48"/>
+        <v>3.333333333</v>
+      </c>
+      <c r="D105" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="49"/>
+        <v>5</v>
+      </c>
+      <c r="F105" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M105" s="4">
+        <f t="shared" si="50"/>
+        <v>22</v>
+      </c>
+      <c r="N105" s="4">
+        <f t="shared" si="51"/>
+        <v>18.33333333</v>
+      </c>
+      <c r="O105" s="4">
+        <f t="shared" si="47"/>
+        <v>16.66666667</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
         <v>44684.0</v>
       </c>
+      <c r="C106" s="4">
+        <f t="shared" si="48"/>
+        <v>1.666666667</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="49"/>
+        <v>2.5</v>
+      </c>
+      <c r="F106" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M106" s="4">
+        <f t="shared" si="50"/>
+        <v>13</v>
+      </c>
+      <c r="N106" s="4">
+        <f t="shared" si="51"/>
+        <v>9.166666667</v>
+      </c>
+      <c r="O106" s="4">
+        <f t="shared" si="47"/>
+        <v>29.48717949</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
         <v>44685.0</v>
       </c>
+      <c r="C107" s="4">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E107" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M107" s="4">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="N107" s="4">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="O107" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
@@ -5414,85 +6887,7840 @@
       <c r="A114" s="2">
         <v>44692.0</v>
       </c>
+      <c r="B114" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="2">
-        <v>44693.0</v>
-      </c>
+      <c r="A115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="2">
-        <v>44694.0</v>
-      </c>
+      <c r="A116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="2">
-        <v>44695.0</v>
+      <c r="A117" s="5">
+        <v>44446.0</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="K117" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="L117" s="6"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+      <c r="R117" s="13">
+        <v>3.518518519</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2">
-        <v>44696.0</v>
+      <c r="A118" s="5">
+        <v>44447.0</v>
+      </c>
+      <c r="B118" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="E118" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F118" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G118" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H118" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I118" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J118" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="K118" s="8">
+        <v>83.07692308</v>
+      </c>
+      <c r="L118" s="6"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="13">
+        <v>3.737373737</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2">
-        <v>44697.0</v>
+      <c r="A119" s="5">
+        <v>44448.0</v>
+      </c>
+      <c r="B119" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E119" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F119" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G119" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H119" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I119" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J119" s="8">
+        <v>79.0</v>
+      </c>
+      <c r="K119" s="8">
+        <v>76.15384615</v>
+      </c>
+      <c r="L119" s="6"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="13">
+        <v>2.555555556</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2">
-        <v>44698.0</v>
+      <c r="A120" s="5">
+        <v>44449.0</v>
+      </c>
+      <c r="B120" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E120" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F120" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G120" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H120" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I120" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J120" s="8">
+        <v>71.0</v>
+      </c>
+      <c r="K120" s="8">
+        <v>69.23076923</v>
+      </c>
+      <c r="L120" s="6"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="13">
+        <v>4.320987654</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2">
-        <v>44699.0</v>
+      <c r="A121" s="5">
+        <v>44450.0</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E121" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F121" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G121" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H121" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I121" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J121" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="K121" s="8">
+        <v>62.30769231</v>
+      </c>
+      <c r="L121" s="6"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="13">
+        <v>8.333333333</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2">
-        <v>44700.0</v>
+      <c r="A122" s="5">
+        <v>44451.0</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E122" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F122" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G122" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H122" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I122" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J122" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="K122" s="8">
+        <v>55.38461538</v>
+      </c>
+      <c r="L122" s="6"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="13">
+        <v>3.174603175</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2">
-        <v>44701.0</v>
+      <c r="A123" s="5">
+        <v>44452.0</v>
+      </c>
+      <c r="B123" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E123" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F123" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G123" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H123" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I123" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J123" s="8">
+        <v>50.0</v>
+      </c>
+      <c r="K123" s="8">
+        <v>48.46153846</v>
+      </c>
+      <c r="L123" s="6"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="13">
+        <v>-1.296296296</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2">
-        <v>44702.0</v>
+      <c r="A124" s="5">
+        <v>44453.0</v>
+      </c>
+      <c r="B124" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="E124" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F124" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G124" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H124" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I124" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J124" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="K124" s="8">
+        <v>41.53846154</v>
+      </c>
+      <c r="L124" s="6"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="11"/>
+      <c r="R124" s="13">
+        <v>-19.11111111</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2">
-        <v>44703.0</v>
+      <c r="A125" s="5">
+        <v>44454.0</v>
+      </c>
+      <c r="B125" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="E125" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F125" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G125" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="H125" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I125" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J125" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="K125" s="8">
+        <v>34.61538462</v>
+      </c>
+      <c r="L125" s="6"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="13">
+        <v>-35.0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2">
-        <v>44704.0</v>
+      <c r="A126" s="5">
+        <v>44455.0</v>
+      </c>
+      <c r="B126" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="E126" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F126" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G126" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="H126" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I126" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J126" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="K126" s="8">
+        <v>27.69230769</v>
+      </c>
+      <c r="L126" s="6"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="12"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="13">
+        <v>-17.0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2">
-        <v>44705.0</v>
+      <c r="A127" s="5">
+        <v>44456.0</v>
+      </c>
+      <c r="B127" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E127" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F127" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G127" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H127" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I127" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J127" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="K127" s="8">
+        <v>20.76923077</v>
+      </c>
+      <c r="L127" s="6"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="13">
+        <v>-12.0</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2">
-        <v>44706.0</v>
+      <c r="A128" s="5">
+        <v>44457.0</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E128" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F128" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G128" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H128" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I128" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J128" s="8">
+        <v>-3.0</v>
+      </c>
+      <c r="K128" s="8">
+        <v>13.84615385</v>
+      </c>
+      <c r="L128" s="6"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="13">
+        <v>-23.0</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2">
-        <v>44707.0</v>
+      <c r="A129" s="5">
+        <v>44458.0</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E129" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F129" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="G129" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H129" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I129" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J129" s="8">
+        <v>-9.0</v>
+      </c>
+      <c r="K129" s="8">
+        <v>6.923076923</v>
+      </c>
+      <c r="L129" s="6"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="13">
+        <v>-7.0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2">
-        <v>44708.0</v>
+      <c r="A130" s="5">
+        <v>44459.0</v>
+      </c>
+      <c r="B130" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E130" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F130" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G130" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H130" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I130" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J130" s="8">
+        <v>-19.0</v>
+      </c>
+      <c r="K130" s="14">
+        <v>2.4869E-14</v>
+      </c>
+      <c r="L130" s="6"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="12"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="15">
+        <v>44460.0</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J131" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="K131" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="L131" s="6"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="12"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="13">
+        <v>-2.739393939</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="15">
+        <v>44461.0</v>
+      </c>
+      <c r="B132" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E132" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F132" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G132" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H132" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I132" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J132" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="K132" s="8">
+        <v>121.3235294</v>
+      </c>
+      <c r="L132" s="16"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="12"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="13">
+        <v>-9.05</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="15">
+        <v>44462.0</v>
+      </c>
+      <c r="B133" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E133" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F133" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G133" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H133" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I133" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J133" s="8">
+        <v>107.0</v>
+      </c>
+      <c r="K133" s="8">
+        <v>117.6470588</v>
+      </c>
+      <c r="L133" s="16"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="13">
+        <v>-14.01290323</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="15">
+        <v>44463.0</v>
+      </c>
+      <c r="B134" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E134" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F134" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G134" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H134" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I134" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J134" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="K134" s="8">
+        <v>113.9705882</v>
+      </c>
+      <c r="L134" s="16"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="12"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="13">
+        <v>-19.30666667</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="15">
+        <v>44464.0</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E135" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F135" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G135" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="H135" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I135" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J135" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="K135" s="8">
+        <v>110.2941176</v>
+      </c>
+      <c r="L135" s="16"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="13">
+        <v>-22.15172414</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="15">
+        <v>44465.0</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E136" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F136" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G136" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H136" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I136" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J136" s="8">
+        <v>83.0</v>
+      </c>
+      <c r="K136" s="8">
+        <v>106.6176471</v>
+      </c>
+      <c r="L136" s="16"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="13">
+        <v>-26.17142857</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="15">
+        <v>44466.0</v>
+      </c>
+      <c r="B137" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E137" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F137" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G137" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H137" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I137" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J137" s="8">
+        <v>76.0</v>
+      </c>
+      <c r="K137" s="8">
+        <v>102.9411765</v>
+      </c>
+      <c r="L137" s="16"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="13">
+        <v>-35.52592593</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="15">
+        <v>44467.0</v>
+      </c>
+      <c r="B138" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E138" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F138" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G138" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="H138" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I138" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J138" s="8">
+        <v>64.0</v>
+      </c>
+      <c r="K138" s="8">
+        <v>99.26470588</v>
+      </c>
+      <c r="L138" s="16"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="12"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="13">
+        <v>-45.6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="15">
+        <v>44468.0</v>
+      </c>
+      <c r="B139" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E139" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F139" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G139" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H139" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I139" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J139" s="8">
+        <v>52.0</v>
+      </c>
+      <c r="K139" s="8">
+        <v>95.58823529</v>
+      </c>
+      <c r="L139" s="16"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
+      <c r="Q139" s="11"/>
+      <c r="R139" s="13">
+        <v>-56.48</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="15">
+        <v>44469.0</v>
+      </c>
+      <c r="B140" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E140" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F140" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G140" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H140" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I140" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J140" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="K140" s="8">
+        <v>91.91176471</v>
+      </c>
+      <c r="L140" s="16"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="12"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+      <c r="R140" s="13">
+        <v>-16.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="15">
+        <v>44470.0</v>
+      </c>
+      <c r="B141" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E141" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F141" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G141" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H141" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I141" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J141" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="K141" s="8">
+        <v>88.23529412</v>
+      </c>
+      <c r="L141" s="16"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+      <c r="R141" s="13">
+        <v>-16.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="15">
+        <v>44471.0</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E142" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F142" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G142" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H142" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I142" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J142" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="K142" s="8">
+        <v>84.55882353</v>
+      </c>
+      <c r="L142" s="16"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="13">
+        <v>-17.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="15">
+        <v>44472.0</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E143" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F143" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G143" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H143" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I143" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J143" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="K143" s="8">
+        <v>80.88235294</v>
+      </c>
+      <c r="L143" s="16"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="11"/>
+      <c r="Q143" s="11"/>
+      <c r="R143" s="13">
+        <v>-18.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="15">
+        <v>44473.0</v>
+      </c>
+      <c r="B144" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E144" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F144" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G144" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H144" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I144" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J144" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="K144" s="8">
+        <v>77.20588235</v>
+      </c>
+      <c r="L144" s="16"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="11"/>
+      <c r="P144" s="11"/>
+      <c r="Q144" s="11"/>
+      <c r="R144" s="13">
+        <v>-33.36</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="15">
+        <v>44474.0</v>
+      </c>
+      <c r="B145" s="6"/>
+      <c r="C145" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="F145" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="G145" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="H145" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="I145" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J145" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="K145" s="8">
+        <v>73.52941176</v>
+      </c>
+      <c r="L145" s="6"/>
+      <c r="M145" s="13">
+        <v>49.0</v>
+      </c>
+      <c r="N145" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="13">
+        <v>-32.71578947</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="15">
+        <v>44475.0</v>
+      </c>
+      <c r="B146" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F146" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G146" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H146" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I146" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J146" s="8">
+        <v>47.0</v>
+      </c>
+      <c r="K146" s="8">
+        <v>69.85294118</v>
+      </c>
+      <c r="L146" s="6"/>
+      <c r="M146" s="13">
+        <v>43.55555556</v>
+      </c>
+      <c r="N146" s="13">
+        <v>7.908163265</v>
+      </c>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
+      <c r="Q146" s="11"/>
+      <c r="R146" s="13">
+        <v>-39.55555556</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="15">
+        <v>44476.0</v>
+      </c>
+      <c r="B147" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F147" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G147" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H147" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I147" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J147" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="K147" s="8">
+        <v>66.17647059</v>
+      </c>
+      <c r="L147" s="11"/>
+      <c r="M147" s="13">
+        <v>38.11111111</v>
+      </c>
+      <c r="N147" s="13">
+        <v>4.956268222</v>
+      </c>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="13">
+        <v>-45.6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="15">
+        <v>44477.0</v>
+      </c>
+      <c r="B148" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F148" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G148" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H148" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I148" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J148" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="K148" s="8">
+        <v>62.5</v>
+      </c>
+      <c r="L148" s="11"/>
+      <c r="M148" s="13">
+        <v>32.66666667</v>
+      </c>
+      <c r="N148" s="13">
+        <v>4.081632653</v>
+      </c>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="13">
+        <v>-47.3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="15">
+        <v>44478.0</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F149" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G149" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H149" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I149" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J149" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="K149" s="8">
+        <v>58.82352941</v>
+      </c>
+      <c r="L149" s="11"/>
+      <c r="M149" s="13">
+        <v>27.22222222</v>
+      </c>
+      <c r="N149" s="13">
+        <v>13.87755102</v>
+      </c>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="13">
+        <v>-25.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="15">
+        <v>44479.0</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F150" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G150" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H150" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I150" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J150" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="K150" s="8">
+        <v>55.14705882</v>
+      </c>
+      <c r="L150" s="11"/>
+      <c r="M150" s="13">
+        <v>21.77777778</v>
+      </c>
+      <c r="N150" s="13">
+        <v>19.3877551</v>
+      </c>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11"/>
+      <c r="Q150" s="11"/>
+      <c r="R150" s="13">
+        <v>-36.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="15">
+        <v>44480.0</v>
+      </c>
+      <c r="B151" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F151" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G151" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H151" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I151" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J151" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="K151" s="8">
+        <v>51.47058824</v>
+      </c>
+      <c r="L151" s="11"/>
+      <c r="M151" s="13">
+        <v>16.33333333</v>
+      </c>
+      <c r="N151" s="13">
+        <v>16.32653061</v>
+      </c>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11"/>
+      <c r="Q151" s="11"/>
+      <c r="R151" s="13">
+        <v>-17.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="15">
+        <v>44481.0</v>
+      </c>
+      <c r="B152" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F152" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G152" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H152" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I152" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J152" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K152" s="8">
+        <v>47.79411765</v>
+      </c>
+      <c r="L152" s="11"/>
+      <c r="M152" s="13">
+        <v>10.88888889</v>
+      </c>
+      <c r="N152" s="13">
+        <v>-8.163265306</v>
+      </c>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="13">
+        <v>-19.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="15">
+        <v>44482.0</v>
+      </c>
+      <c r="B153" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F153" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G153" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H153" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I153" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J153" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="K153" s="8">
+        <v>44.11764706</v>
+      </c>
+      <c r="L153" s="11"/>
+      <c r="M153" s="13">
+        <v>5.444444444</v>
+      </c>
+      <c r="N153" s="13">
+        <v>-26.53061224</v>
+      </c>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
+      <c r="Q153" s="11"/>
+      <c r="R153" s="13">
+        <v>-10.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="15">
+        <v>44483.0</v>
+      </c>
+      <c r="B154" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F154" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G154" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H154" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I154" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J154" s="8">
+        <v>-2.0</v>
+      </c>
+      <c r="K154" s="8">
+        <v>40.44117647</v>
+      </c>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11"/>
+      <c r="Q154" s="11"/>
+      <c r="R154" s="13">
+        <v>38.72</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="15">
+        <v>44484.0</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="F155" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="G155" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="H155" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="I155" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J155" s="8">
+        <v>51.0</v>
+      </c>
+      <c r="K155" s="8">
+        <v>36.76470588</v>
+      </c>
+      <c r="L155" s="11"/>
+      <c r="M155" s="13">
+        <v>51.0</v>
+      </c>
+      <c r="N155" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11"/>
+      <c r="Q155" s="11"/>
+      <c r="R155" s="13">
+        <v>51.11111111</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="15">
+        <v>44485.0</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F156" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G156" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H156" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I156" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J156" s="8">
+        <v>50.0</v>
+      </c>
+      <c r="K156" s="8">
+        <v>33.08823529</v>
+      </c>
+      <c r="L156" s="11"/>
+      <c r="M156" s="13">
+        <v>45.9</v>
+      </c>
+      <c r="N156" s="13">
+        <v>8.932461874</v>
+      </c>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="13">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="15">
+        <v>44486.0</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F157" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G157" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H157" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I157" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J157" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="K157" s="8">
+        <v>29.41176471</v>
+      </c>
+      <c r="L157" s="11"/>
+      <c r="M157" s="13">
+        <v>40.8</v>
+      </c>
+      <c r="N157" s="13">
+        <v>17.64705882</v>
+      </c>
+      <c r="O157" s="11"/>
+      <c r="P157" s="11"/>
+      <c r="Q157" s="11"/>
+      <c r="R157" s="13">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="15">
+        <v>44487.0</v>
+      </c>
+      <c r="B158" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F158" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G158" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H158" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I158" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J158" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="K158" s="8">
+        <v>25.73529412</v>
+      </c>
+      <c r="L158" s="11"/>
+      <c r="M158" s="13">
+        <v>35.7</v>
+      </c>
+      <c r="N158" s="13">
+        <v>17.64705882</v>
+      </c>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="13">
+        <v>58.66666667</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="15">
+        <v>44488.0</v>
+      </c>
+      <c r="B159" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F159" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G159" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H159" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I159" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J159" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="K159" s="8">
+        <v>22.05882353</v>
+      </c>
+      <c r="L159" s="11"/>
+      <c r="M159" s="13">
+        <v>30.6</v>
+      </c>
+      <c r="N159" s="13">
+        <v>14.37908497</v>
+      </c>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="13">
+        <v>52.32</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="15">
+        <v>44489.0</v>
+      </c>
+      <c r="B160" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F160" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G160" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H160" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I160" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J160" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="K160" s="8">
+        <v>18.38235294</v>
+      </c>
+      <c r="L160" s="11"/>
+      <c r="M160" s="13">
+        <v>25.5</v>
+      </c>
+      <c r="N160" s="13">
+        <v>9.803921569</v>
+      </c>
+      <c r="O160" s="11"/>
+      <c r="P160" s="11"/>
+      <c r="Q160" s="11"/>
+      <c r="R160" s="13">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="15">
+        <v>44490.0</v>
+      </c>
+      <c r="B161" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F161" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G161" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H161" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I161" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J161" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="K161" s="8">
+        <v>14.70588235</v>
+      </c>
+      <c r="L161" s="11"/>
+      <c r="M161" s="13">
+        <v>20.4</v>
+      </c>
+      <c r="N161" s="13">
+        <v>-6.862745098</v>
+      </c>
+      <c r="O161" s="11"/>
+      <c r="P161" s="11"/>
+      <c r="Q161" s="11"/>
+      <c r="R161" s="13">
+        <v>-0.266666667</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="15">
+        <v>44491.0</v>
+      </c>
+      <c r="B162" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F162" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G162" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H162" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I162" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J162" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="K162" s="8">
+        <v>11.02941176</v>
+      </c>
+      <c r="L162" s="11"/>
+      <c r="M162" s="13">
+        <v>15.3</v>
+      </c>
+      <c r="N162" s="13">
+        <v>-28.10457516</v>
+      </c>
+      <c r="O162" s="11"/>
+      <c r="P162" s="11"/>
+      <c r="Q162" s="11"/>
+      <c r="R162" s="13">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="15">
+        <v>44492.0</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F163" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G163" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H163" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I163" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J163" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="K163" s="8">
+        <v>7.352941176</v>
+      </c>
+      <c r="L163" s="11"/>
+      <c r="M163" s="13">
+        <v>10.2</v>
+      </c>
+      <c r="N163" s="13">
+        <v>-31.37254902</v>
+      </c>
+      <c r="O163" s="11"/>
+      <c r="P163" s="11"/>
+      <c r="Q163" s="11"/>
+      <c r="R163" s="13">
+        <v>-18.4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="15">
+        <v>44493.0</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F164" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G164" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H164" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I164" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J164" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="K164" s="8">
+        <v>3.676470588</v>
+      </c>
+      <c r="L164" s="11"/>
+      <c r="M164" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="N164" s="13">
+        <v>-41.17647059</v>
+      </c>
+      <c r="O164" s="11"/>
+      <c r="P164" s="11"/>
+      <c r="Q164" s="11"/>
+      <c r="R164" s="13">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="15">
+        <v>44494.0</v>
+      </c>
+      <c r="B165" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F165" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G165" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H165" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I165" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J165" s="8">
+        <v>-7.0</v>
+      </c>
+      <c r="K165" s="14">
+        <v>4.52971E-14</v>
+      </c>
+      <c r="L165" s="11"/>
+      <c r="M165" s="11"/>
+      <c r="N165" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O165" s="11"/>
+      <c r="P165" s="11"/>
+      <c r="Q165" s="11"/>
+      <c r="R165" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="15">
+        <v>44495.0</v>
+      </c>
+      <c r="B166" s="6"/>
+      <c r="C166" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="6"/>
+      <c r="E166" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J166" s="8">
+        <v>269.0</v>
+      </c>
+      <c r="K166" s="8">
+        <v>269.0</v>
+      </c>
+      <c r="L166" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M166" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N166" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O166" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P166" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q166" s="13">
+        <v>269.0</v>
+      </c>
+      <c r="R166" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="15">
+        <v>44496.0</v>
+      </c>
+      <c r="B167" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E167" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F167" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G167" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H167" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I167" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J167" s="8">
+        <v>263.5102041</v>
+      </c>
+      <c r="K167" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="L167" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="M167" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="N167" s="17">
+        <v>16.0</v>
+      </c>
+      <c r="O167" s="11"/>
+      <c r="P167" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="Q167" s="11"/>
+      <c r="R167" s="13">
+        <v>-0.95260223</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="15">
+        <v>44497.0</v>
+      </c>
+      <c r="B168" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F168" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G168" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H168" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I168" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J168" s="8">
+        <v>258.0204082</v>
+      </c>
+      <c r="K168" s="8">
+        <v>248.0</v>
+      </c>
+      <c r="L168" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="M168" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="N168" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="O168" s="11"/>
+      <c r="P168" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="Q168" s="11"/>
+      <c r="R168" s="13">
+        <v>-3.883571937</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="15">
+        <v>44498.0</v>
+      </c>
+      <c r="B169" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F169" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G169" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H169" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I169" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J169" s="8">
+        <v>252.5306122</v>
+      </c>
+      <c r="K169" s="8">
+        <v>239.0</v>
+      </c>
+      <c r="L169" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="M169" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="N169" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="O169" s="11"/>
+      <c r="P169" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="Q169" s="11"/>
+      <c r="R169" s="13">
+        <v>-5.358008728</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="15">
+        <v>44499.0</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F170" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G170" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H170" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I170" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J170" s="8">
+        <v>247.0408163</v>
+      </c>
+      <c r="K170" s="8">
+        <v>237.0</v>
+      </c>
+      <c r="L170" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="M170" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="N170" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="O170" s="11"/>
+      <c r="P170" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="Q170" s="11"/>
+      <c r="R170" s="13">
+        <v>-4.064436183</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="15">
+        <v>44500.0</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F171" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G171" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H171" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="I171" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J171" s="8">
+        <v>241.5510204</v>
+      </c>
+      <c r="K171" s="8">
+        <v>234.0</v>
+      </c>
+      <c r="L171" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="M171" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="N171" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="O171" s="11"/>
+      <c r="P171" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="Q171" s="11"/>
+      <c r="R171" s="13">
+        <v>-3.1260561</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="15">
+        <v>44501.0</v>
+      </c>
+      <c r="B172" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F172" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G172" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H172" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="I172" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="J172" s="8">
+        <v>236.0612245</v>
+      </c>
+      <c r="K172" s="8">
+        <v>224.0</v>
+      </c>
+      <c r="L172" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="M172" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="N172" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="O172" s="11"/>
+      <c r="P172" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="Q172" s="11"/>
+      <c r="R172" s="13">
+        <v>-5.109362843</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="15">
+        <v>44502.0</v>
+      </c>
+      <c r="B173" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F173" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G173" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="H173" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="I173" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="J173" s="8">
+        <v>230.5714286</v>
+      </c>
+      <c r="K173" s="8">
+        <v>214.0</v>
+      </c>
+      <c r="L173" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="M173" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="N173" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="O173" s="11"/>
+      <c r="P173" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="Q173" s="11"/>
+      <c r="R173" s="13">
+        <v>-7.187112763</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="15">
+        <v>44503.0</v>
+      </c>
+      <c r="B174" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F174" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G174" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="H174" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="I174" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J174" s="8">
+        <v>225.0816327</v>
+      </c>
+      <c r="K174" s="8">
+        <v>203.0</v>
+      </c>
+      <c r="L174" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="M174" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="N174" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="O174" s="11"/>
+      <c r="P174" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="Q174" s="11"/>
+      <c r="R174" s="13">
+        <v>-9.810499592</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="15">
+        <v>44504.0</v>
+      </c>
+      <c r="B175" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F175" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G175" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="H175" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="I175" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="J175" s="8">
+        <v>219.5918367</v>
+      </c>
+      <c r="K175" s="8">
+        <v>195.0</v>
+      </c>
+      <c r="L175" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="M175" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="N175" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="O175" s="11"/>
+      <c r="P175" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="Q175" s="11"/>
+      <c r="R175" s="13">
+        <v>-11.19888476</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="15">
+        <v>44505.0</v>
+      </c>
+      <c r="B176" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F176" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G176" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H176" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="I176" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J176" s="8">
+        <v>214.1020408</v>
+      </c>
+      <c r="K176" s="8">
+        <v>188.0</v>
+      </c>
+      <c r="L176" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="M176" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="N176" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="O176" s="11"/>
+      <c r="P176" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="Q176" s="11"/>
+      <c r="R176" s="13">
+        <v>-12.19140215</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="15">
+        <v>44506.0</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F177" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G177" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="H177" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="I177" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J177" s="8">
+        <v>208.6122449</v>
+      </c>
+      <c r="K177" s="8">
+        <v>185.0</v>
+      </c>
+      <c r="L177" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="M177" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="N177" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="O177" s="11"/>
+      <c r="P177" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="Q177" s="11"/>
+      <c r="R177" s="13">
+        <v>-11.31872432</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="15">
+        <v>44507.0</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F178" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G178" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H178" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="I178" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="J178" s="8">
+        <v>203.122449</v>
+      </c>
+      <c r="K178" s="8">
+        <v>179.0</v>
+      </c>
+      <c r="L178" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="M178" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="N178" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="O178" s="11"/>
+      <c r="P178" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="Q178" s="11"/>
+      <c r="R178" s="13">
+        <v>-11.87581634</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="15">
+        <v>44508.0</v>
+      </c>
+      <c r="B179" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F179" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G179" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H179" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="I179" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="J179" s="8">
+        <v>197.6326531</v>
+      </c>
+      <c r="K179" s="8">
+        <v>169.0</v>
+      </c>
+      <c r="L179" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="M179" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="N179" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="O179" s="11"/>
+      <c r="P179" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="Q179" s="11"/>
+      <c r="R179" s="13">
+        <v>-14.48781495</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="15">
+        <v>44509.0</v>
+      </c>
+      <c r="B180" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F180" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G180" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H180" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="I180" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J180" s="8">
+        <v>192.1428571</v>
+      </c>
+      <c r="K180" s="8">
+        <v>161.0</v>
+      </c>
+      <c r="L180" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="M180" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="N180" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="O180" s="11"/>
+      <c r="P180" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="Q180" s="11"/>
+      <c r="R180" s="13">
+        <v>-16.20817844</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="15">
+        <v>44510.0</v>
+      </c>
+      <c r="B181" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F181" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G181" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H181" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I181" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J181" s="8">
+        <v>186.6530612</v>
+      </c>
+      <c r="K181" s="8">
+        <v>151.0</v>
+      </c>
+      <c r="L181" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M181" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="N181" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O181" s="11"/>
+      <c r="P181" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="Q181" s="11"/>
+      <c r="R181" s="13">
+        <v>-19.10124645</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="15">
+        <v>44511.0</v>
+      </c>
+      <c r="B182" s="6"/>
+      <c r="C182" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F182" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G182" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H182" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I182" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J182" s="8">
+        <v>181.1632653</v>
+      </c>
+      <c r="K182" s="8">
+        <v>151.0</v>
+      </c>
+      <c r="L182" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M182" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N182" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O182" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P182" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q182" s="13">
+        <v>153.0</v>
+      </c>
+      <c r="R182" s="13">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="15">
+        <v>44512.0</v>
+      </c>
+      <c r="B183" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F183" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G183" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H183" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I183" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J183" s="8">
+        <v>175.6734694</v>
+      </c>
+      <c r="K183" s="8">
+        <v>148.0</v>
+      </c>
+      <c r="L183" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="M183" s="11"/>
+      <c r="N183" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="O183" s="11"/>
+      <c r="P183" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="Q183" s="11"/>
+      <c r="R183" s="13">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="15">
+        <v>44513.0</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F184" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G184" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H184" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I184" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J184" s="8">
+        <v>170.1836735</v>
+      </c>
+      <c r="K184" s="8">
+        <v>145.0</v>
+      </c>
+      <c r="L184" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="M184" s="11"/>
+      <c r="N184" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="O184" s="11"/>
+      <c r="P184" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="Q184" s="11"/>
+      <c r="R184" s="13">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="15">
+        <v>44514.0</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F185" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G185" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H185" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I185" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J185" s="8">
+        <v>164.6938776</v>
+      </c>
+      <c r="K185" s="8">
+        <v>143.0</v>
+      </c>
+      <c r="L185" s="13">
+        <v>29.0</v>
+      </c>
+      <c r="M185" s="11"/>
+      <c r="N185" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="O185" s="11"/>
+      <c r="P185" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="Q185" s="11"/>
+      <c r="R185" s="13">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="15">
+        <v>44515.0</v>
+      </c>
+      <c r="B186" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F186" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="G186" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H186" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I186" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J186" s="8">
+        <v>159.2040816</v>
+      </c>
+      <c r="K186" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="L186" s="13">
+        <v>28.0</v>
+      </c>
+      <c r="M186" s="11"/>
+      <c r="N186" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="O186" s="11"/>
+      <c r="P186" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="Q186" s="11"/>
+      <c r="R186" s="13">
+        <v>-11.43443148</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="15">
+        <v>44516.0</v>
+      </c>
+      <c r="B187" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F187" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G187" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H187" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I187" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J187" s="8">
+        <v>153.7142857</v>
+      </c>
+      <c r="K187" s="8">
+        <v>138.0</v>
+      </c>
+      <c r="L187" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="M187" s="11"/>
+      <c r="N187" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="O187" s="11"/>
+      <c r="P187" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="Q187" s="11"/>
+      <c r="R187" s="13">
+        <v>-10.22304833</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="15">
+        <v>44517.0</v>
+      </c>
+      <c r="B188" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F188" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G188" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H188" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I188" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J188" s="8">
+        <v>148.2244898</v>
+      </c>
+      <c r="K188" s="8">
+        <v>132.0</v>
+      </c>
+      <c r="L188" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="M188" s="11"/>
+      <c r="N188" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="O188" s="11"/>
+      <c r="P188" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="Q188" s="11"/>
+      <c r="R188" s="13">
+        <v>-10.94589013</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="15">
+        <v>44518.0</v>
+      </c>
+      <c r="B189" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F189" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G189" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H189" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I189" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J189" s="8">
+        <v>142.7346939</v>
+      </c>
+      <c r="K189" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="L189" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="M189" s="11"/>
+      <c r="N189" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="O189" s="11"/>
+      <c r="P189" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="Q189" s="11"/>
+      <c r="R189" s="13">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="15">
+        <v>44519.0</v>
+      </c>
+      <c r="B190" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F190" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G190" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H190" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I190" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J190" s="8">
+        <v>137.244898</v>
+      </c>
+      <c r="K190" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="L190" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="M190" s="11"/>
+      <c r="N190" s="13">
+        <v>29.0</v>
+      </c>
+      <c r="O190" s="11"/>
+      <c r="P190" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="Q190" s="11"/>
+      <c r="R190" s="13">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="15">
+        <v>44520.0</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F191" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G191" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H191" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I191" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J191" s="8">
+        <v>131.755102</v>
+      </c>
+      <c r="K191" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="L191" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="M191" s="11"/>
+      <c r="N191" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="O191" s="11"/>
+      <c r="P191" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="Q191" s="11"/>
+      <c r="R191" s="13">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="15">
+        <v>44521.0</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F192" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G192" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H192" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I192" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J192" s="8">
+        <v>126.2653061</v>
+      </c>
+      <c r="K192" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="L192" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="M192" s="11"/>
+      <c r="N192" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="O192" s="11"/>
+      <c r="P192" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="Q192" s="11"/>
+      <c r="R192" s="13">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="15">
+        <v>44522.0</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F193" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G193" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H193" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I193" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J193" s="8">
+        <v>120.7755102</v>
+      </c>
+      <c r="K193" s="8">
+        <v>113.0</v>
+      </c>
+      <c r="L193" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="M193" s="11"/>
+      <c r="N193" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="O193" s="11"/>
+      <c r="P193" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="Q193" s="11"/>
+      <c r="R193" s="13">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="15">
+        <v>44523.0</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F194" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="G194" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H194" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I194" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J194" s="8">
+        <v>115.2857143</v>
+      </c>
+      <c r="K194" s="8">
+        <v>110.0</v>
+      </c>
+      <c r="L194" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="M194" s="11"/>
+      <c r="N194" s="13">
+        <v>26.0</v>
+      </c>
+      <c r="O194" s="11"/>
+      <c r="P194" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="Q194" s="11"/>
+      <c r="R194" s="13">
+        <v>-4.58488228</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="15">
+        <v>44524.0</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F195" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G195" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H195" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I195" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J195" s="8">
+        <v>109.7959184</v>
+      </c>
+      <c r="K195" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="L195" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="M195" s="11"/>
+      <c r="N195" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="O195" s="11"/>
+      <c r="P195" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="Q195" s="11"/>
+      <c r="R195" s="13">
+        <v>-4.36802974</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="15">
+        <v>44525.0</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F196" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="G196" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H196" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I196" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J196" s="8">
+        <v>104.3061224</v>
+      </c>
+      <c r="K196" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="L196" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="M196" s="11"/>
+      <c r="N196" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="O196" s="11"/>
+      <c r="P196" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="Q196" s="11"/>
+      <c r="R196" s="13">
+        <v>0.665231853</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="15">
+        <v>44526.0</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F197" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="G197" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H197" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I197" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J197" s="8">
+        <v>98.81632653</v>
+      </c>
+      <c r="K197" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="L197" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="M197" s="11"/>
+      <c r="N197" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="O197" s="11"/>
+      <c r="P197" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="Q197" s="11"/>
+      <c r="R197" s="13">
+        <v>3.22180917</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="15">
+        <v>44527.0</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F198" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G198" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H198" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I198" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J198" s="8">
+        <v>93.32653061</v>
+      </c>
+      <c r="K198" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="L198" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="M198" s="11"/>
+      <c r="N198" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="O198" s="11"/>
+      <c r="P198" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="Q198" s="11"/>
+      <c r="R198" s="13">
+        <v>-0.349879729</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="15">
+        <v>44528.0</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F199" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G199" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H199" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I199" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J199" s="8">
+        <v>87.83673469</v>
+      </c>
+      <c r="K199" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="L199" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="M199" s="11"/>
+      <c r="N199" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="O199" s="11"/>
+      <c r="P199" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="Q199" s="11"/>
+      <c r="R199" s="13">
+        <v>2.462825279</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="15">
+        <v>44529.0</v>
+      </c>
+      <c r="B200" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F200" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G200" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H200" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I200" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J200" s="8">
+        <v>82.34693878</v>
+      </c>
+      <c r="K200" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="L200" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="M200" s="11"/>
+      <c r="N200" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="O200" s="11"/>
+      <c r="P200" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="Q200" s="11"/>
+      <c r="R200" s="13">
+        <v>4.436183395</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="15">
+        <v>44530.0</v>
+      </c>
+      <c r="B201" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F201" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G201" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H201" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I201" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J201" s="8">
+        <v>76.85714286</v>
+      </c>
+      <c r="K201" s="8">
+        <v>80.0</v>
+      </c>
+      <c r="L201" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="M201" s="11"/>
+      <c r="N201" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="O201" s="11"/>
+      <c r="P201" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="Q201" s="11"/>
+      <c r="R201" s="13">
+        <v>4.089219331</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="15">
+        <v>44531.0</v>
+      </c>
+      <c r="B202" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F202" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G202" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H202" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I202" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J202" s="8">
+        <v>71.36734694</v>
+      </c>
+      <c r="K202" s="8">
+        <v>73.0</v>
+      </c>
+      <c r="L202" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="M202" s="11"/>
+      <c r="N202" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="O202" s="11"/>
+      <c r="P202" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="Q202" s="11"/>
+      <c r="R202" s="13">
+        <v>2.28767515</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="15">
+        <v>44532.0</v>
+      </c>
+      <c r="B203" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F203" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G203" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H203" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I203" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J203" s="8">
+        <v>65.87755102</v>
+      </c>
+      <c r="K203" s="8">
+        <v>66.0</v>
+      </c>
+      <c r="L203" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="M203" s="11"/>
+      <c r="N203" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="O203" s="11"/>
+      <c r="P203" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="Q203" s="11"/>
+      <c r="R203" s="13">
+        <v>0.185873606</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="15">
+        <v>44533.0</v>
+      </c>
+      <c r="B204" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F204" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G204" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H204" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I204" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J204" s="8">
+        <v>60.3877551</v>
+      </c>
+      <c r="K204" s="8">
+        <v>58.0</v>
+      </c>
+      <c r="L204" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="M204" s="11"/>
+      <c r="N204" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="O204" s="11"/>
+      <c r="P204" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="Q204" s="11"/>
+      <c r="R204" s="13">
+        <v>-3.954038527</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="15">
+        <v>44534.0</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F205" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G205" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H205" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I205" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J205" s="8">
+        <v>54.89795918</v>
+      </c>
+      <c r="K205" s="8">
+        <v>55.0</v>
+      </c>
+      <c r="L205" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="M205" s="11"/>
+      <c r="N205" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="O205" s="11"/>
+      <c r="P205" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="Q205" s="11"/>
+      <c r="R205" s="13">
+        <v>0.185873606</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="15">
+        <v>44535.0</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F206" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="G206" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H206" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I206" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J206" s="8">
+        <v>49.40816327</v>
+      </c>
+      <c r="K206" s="8">
+        <v>47.0</v>
+      </c>
+      <c r="L206" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="M206" s="11"/>
+      <c r="N206" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="O206" s="11"/>
+      <c r="P206" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="Q206" s="11"/>
+      <c r="R206" s="13">
+        <v>-4.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="15">
+        <v>44536.0</v>
+      </c>
+      <c r="B207" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F207" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G207" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H207" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I207" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J207" s="8">
+        <v>43.91836735</v>
+      </c>
+      <c r="K207" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="L207" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="M207" s="11"/>
+      <c r="N207" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="O207" s="11"/>
+      <c r="P207" s="13">
+        <v>-4.0</v>
+      </c>
+      <c r="Q207" s="11"/>
+      <c r="R207" s="13">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="15">
+        <v>44537.0</v>
+      </c>
+      <c r="B208" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F208" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G208" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H208" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I208" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J208" s="8">
+        <v>38.42857143</v>
+      </c>
+      <c r="K208" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="L208" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="M208" s="11"/>
+      <c r="N208" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="O208" s="11"/>
+      <c r="P208" s="13">
+        <v>-6.0</v>
+      </c>
+      <c r="Q208" s="11"/>
+      <c r="R208" s="13">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="15">
+        <v>44538.0</v>
+      </c>
+      <c r="B209" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F209" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G209" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H209" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I209" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J209" s="8">
+        <v>32.93877551</v>
+      </c>
+      <c r="K209" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="L209" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="M209" s="11"/>
+      <c r="N209" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="O209" s="11"/>
+      <c r="P209" s="13">
+        <v>-8.0</v>
+      </c>
+      <c r="Q209" s="11"/>
+      <c r="R209" s="13">
+        <v>-3.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="15">
+        <v>44539.0</v>
+      </c>
+      <c r="B210" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F210" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="G210" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="H210" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="I210" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="J210" s="8">
+        <v>27.44897959</v>
+      </c>
+      <c r="K210" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="L210" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="M210" s="11"/>
+      <c r="N210" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="O210" s="11"/>
+      <c r="P210" s="13">
+        <v>-9.0</v>
+      </c>
+      <c r="Q210" s="11"/>
+      <c r="R210" s="13">
+        <v>-3.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="15">
+        <v>44540.0</v>
+      </c>
+      <c r="B211" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F211" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G211" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H211" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="I211" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="J211" s="8">
+        <v>21.95918367</v>
+      </c>
+      <c r="K211" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="L211" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="M211" s="11"/>
+      <c r="N211" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="O211" s="11"/>
+      <c r="P211" s="13">
+        <v>-10.0</v>
+      </c>
+      <c r="Q211" s="11"/>
+      <c r="R211" s="13">
+        <v>-4.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="15">
+        <v>44541.0</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F212" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G212" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H212" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="I212" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="J212" s="8">
+        <v>16.46938776</v>
+      </c>
+      <c r="K212" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="L212" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="M212" s="11"/>
+      <c r="N212" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="O212" s="11"/>
+      <c r="P212" s="13">
+        <v>-12.0</v>
+      </c>
+      <c r="Q212" s="11"/>
+      <c r="R212" s="13">
+        <v>-6.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="15">
+        <v>44542.0</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F213" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="G213" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H213" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="I213" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="J213" s="8">
+        <v>10.97959184</v>
+      </c>
+      <c r="K213" s="8">
+        <v>-2.0</v>
+      </c>
+      <c r="L213" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="M213" s="11"/>
+      <c r="N213" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="O213" s="11"/>
+      <c r="P213" s="13">
+        <v>-14.0</v>
+      </c>
+      <c r="Q213" s="11"/>
+      <c r="R213" s="13">
+        <v>-10.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="15">
+        <v>44543.0</v>
+      </c>
+      <c r="B214" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F214" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G214" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H214" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="I214" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="J214" s="8">
+        <v>5.489795918</v>
+      </c>
+      <c r="K214" s="8">
+        <v>-11.0</v>
+      </c>
+      <c r="L214" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M214" s="11"/>
+      <c r="N214" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="O214" s="11"/>
+      <c r="P214" s="13">
+        <v>-17.0</v>
+      </c>
+      <c r="Q214" s="11"/>
+      <c r="R214" s="13">
+        <v>-3.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="15">
+        <v>44544.0</v>
+      </c>
+      <c r="B215" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F215" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="G215" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H215" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="I215" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="J215" s="14">
+        <v>-9.41469E-14</v>
+      </c>
+      <c r="K215" s="8">
+        <v>-17.0</v>
+      </c>
+      <c r="L215" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M215" s="11"/>
+      <c r="N215" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O215" s="11"/>
+      <c r="P215" s="13">
+        <v>-20.0</v>
+      </c>
+      <c r="Q215" s="11"/>
+      <c r="R215" s="13">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="15">
+        <v>44545.0</v>
+      </c>
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
+      <c r="G216" s="11"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="11"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="11"/>
+      <c r="L216" s="11"/>
+      <c r="M216" s="11"/>
+      <c r="N216" s="11"/>
+      <c r="O216" s="11"/>
+      <c r="P216" s="11"/>
+      <c r="Q216" s="11"/>
+      <c r="R216" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="15">
+        <v>44546.0</v>
+      </c>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="11"/>
+      <c r="H217" s="11"/>
+      <c r="I217" s="11"/>
+      <c r="J217" s="11"/>
+      <c r="K217" s="11"/>
+      <c r="L217" s="11"/>
+      <c r="M217" s="11"/>
+      <c r="N217" s="11"/>
+      <c r="O217" s="11"/>
+      <c r="P217" s="11"/>
+      <c r="Q217" s="11"/>
+      <c r="R217" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="15">
+        <v>44547.0</v>
+      </c>
+      <c r="B218" s="11"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="11"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="11"/>
+      <c r="L218" s="11"/>
+      <c r="M218" s="11"/>
+      <c r="N218" s="11"/>
+      <c r="O218" s="11"/>
+      <c r="P218" s="11"/>
+      <c r="Q218" s="11"/>
+      <c r="R218" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="15">
+        <v>44548.0</v>
+      </c>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
+      <c r="H219" s="11"/>
+      <c r="I219" s="11"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="11"/>
+      <c r="L219" s="11"/>
+      <c r="M219" s="11"/>
+      <c r="N219" s="11"/>
+      <c r="O219" s="11"/>
+      <c r="P219" s="11"/>
+      <c r="Q219" s="11"/>
+      <c r="R219" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="15">
+        <v>44549.0</v>
+      </c>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="11"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="11"/>
+      <c r="L220" s="11"/>
+      <c r="M220" s="11"/>
+      <c r="N220" s="11"/>
+      <c r="O220" s="11"/>
+      <c r="P220" s="11"/>
+      <c r="Q220" s="11"/>
+      <c r="R220" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="15">
+        <v>44550.0</v>
+      </c>
+      <c r="B221" s="11"/>
+      <c r="C221" s="11"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="11"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="11"/>
+      <c r="L221" s="11"/>
+      <c r="M221" s="11"/>
+      <c r="N221" s="11"/>
+      <c r="O221" s="11"/>
+      <c r="P221" s="11"/>
+      <c r="Q221" s="11"/>
+      <c r="R221" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="15">
+        <v>44551.0</v>
+      </c>
+      <c r="B222" s="11"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="11"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="11"/>
+      <c r="L222" s="11"/>
+      <c r="M222" s="11"/>
+      <c r="N222" s="11"/>
+      <c r="O222" s="11"/>
+      <c r="P222" s="11"/>
+      <c r="Q222" s="11"/>
+      <c r="R222" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="15">
+        <v>44552.0</v>
+      </c>
+      <c r="B223" s="11"/>
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="11"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="11"/>
+      <c r="L223" s="11"/>
+      <c r="M223" s="11"/>
+      <c r="N223" s="11"/>
+      <c r="O223" s="11"/>
+      <c r="P223" s="11"/>
+      <c r="Q223" s="11"/>
+      <c r="R223" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="15">
+        <v>44553.0</v>
+      </c>
+      <c r="B224" s="11"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
+      <c r="G224" s="11"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="11"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="11"/>
+      <c r="L224" s="11"/>
+      <c r="M224" s="11"/>
+      <c r="N224" s="11"/>
+      <c r="O224" s="11"/>
+      <c r="P224" s="11"/>
+      <c r="Q224" s="11"/>
+      <c r="R224" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="15">
+        <v>44554.0</v>
+      </c>
+      <c r="B225" s="11"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="11"/>
+      <c r="J225" s="11"/>
+      <c r="K225" s="11"/>
+      <c r="L225" s="11"/>
+      <c r="M225" s="11"/>
+      <c r="N225" s="11"/>
+      <c r="O225" s="11"/>
+      <c r="P225" s="11"/>
+      <c r="Q225" s="11"/>
+      <c r="R225" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="15">
+        <v>44555.0</v>
+      </c>
+      <c r="B226" s="11"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="18"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
+      <c r="G226" s="11"/>
+      <c r="H226" s="11"/>
+      <c r="I226" s="11"/>
+      <c r="J226" s="18"/>
+      <c r="K226" s="11"/>
+      <c r="L226" s="11"/>
+      <c r="M226" s="11"/>
+      <c r="N226" s="11"/>
+      <c r="O226" s="11"/>
+      <c r="P226" s="11"/>
+      <c r="Q226" s="11"/>
+      <c r="R226" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="15">
+        <v>44556.0</v>
+      </c>
+      <c r="B227" s="11"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="18"/>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="11"/>
+      <c r="I227" s="11"/>
+      <c r="J227" s="18"/>
+      <c r="K227" s="11"/>
+      <c r="L227" s="11"/>
+      <c r="M227" s="11"/>
+      <c r="N227" s="11"/>
+      <c r="O227" s="11"/>
+      <c r="P227" s="11"/>
+      <c r="Q227" s="11"/>
+      <c r="R227" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="15">
+        <v>44557.0</v>
+      </c>
+      <c r="B228" s="11"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="18"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="11"/>
+      <c r="J228" s="18"/>
+      <c r="K228" s="11"/>
+      <c r="L228" s="11"/>
+      <c r="M228" s="11"/>
+      <c r="N228" s="11"/>
+      <c r="O228" s="11"/>
+      <c r="P228" s="11"/>
+      <c r="Q228" s="11"/>
+      <c r="R228" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="15">
+        <v>44558.0</v>
+      </c>
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="18"/>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="11"/>
+      <c r="J229" s="18"/>
+      <c r="K229" s="11"/>
+      <c r="L229" s="11"/>
+      <c r="M229" s="11"/>
+      <c r="N229" s="11"/>
+      <c r="O229" s="11"/>
+      <c r="P229" s="11"/>
+      <c r="Q229" s="11"/>
+      <c r="R229" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="15">
+        <v>44559.0</v>
+      </c>
+      <c r="B230" s="11"/>
+      <c r="C230" s="11"/>
+      <c r="D230" s="18"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="11"/>
+      <c r="I230" s="11"/>
+      <c r="J230" s="18"/>
+      <c r="K230" s="11"/>
+      <c r="L230" s="11"/>
+      <c r="M230" s="11"/>
+      <c r="N230" s="11"/>
+      <c r="O230" s="11"/>
+      <c r="P230" s="11"/>
+      <c r="Q230" s="11"/>
+      <c r="R230" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="15">
+        <v>44560.0</v>
+      </c>
+      <c r="B231" s="11"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="11"/>
+      <c r="I231" s="11"/>
+      <c r="J231" s="18"/>
+      <c r="K231" s="11"/>
+      <c r="L231" s="11"/>
+      <c r="M231" s="11"/>
+      <c r="N231" s="11"/>
+      <c r="O231" s="11"/>
+      <c r="P231" s="11"/>
+      <c r="Q231" s="11"/>
+      <c r="R231" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="15">
+        <v>44561.0</v>
+      </c>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="18"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="11"/>
+      <c r="I232" s="11"/>
+      <c r="J232" s="18"/>
+      <c r="K232" s="11"/>
+      <c r="L232" s="11"/>
+      <c r="M232" s="11"/>
+      <c r="N232" s="11"/>
+      <c r="O232" s="11"/>
+      <c r="P232" s="11"/>
+      <c r="Q232" s="11"/>
+      <c r="R232" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="15">
+        <v>44562.0</v>
+      </c>
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="18"/>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="11"/>
+      <c r="I233" s="11"/>
+      <c r="J233" s="18"/>
+      <c r="K233" s="11"/>
+      <c r="L233" s="11"/>
+      <c r="M233" s="11"/>
+      <c r="N233" s="11"/>
+      <c r="O233" s="11"/>
+      <c r="P233" s="11"/>
+      <c r="Q233" s="11"/>
+      <c r="R233" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="15">
+        <v>44563.0</v>
+      </c>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="18"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="11"/>
+      <c r="J234" s="18"/>
+      <c r="K234" s="11"/>
+      <c r="L234" s="11"/>
+      <c r="M234" s="11"/>
+      <c r="N234" s="11"/>
+      <c r="O234" s="11"/>
+      <c r="P234" s="11"/>
+      <c r="Q234" s="11"/>
+      <c r="R234" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="15">
+        <v>44564.0</v>
+      </c>
+      <c r="B235" s="11"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="18"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="11"/>
+      <c r="J235" s="18"/>
+      <c r="K235" s="11"/>
+      <c r="L235" s="11"/>
+      <c r="M235" s="11"/>
+      <c r="N235" s="11"/>
+      <c r="O235" s="11"/>
+      <c r="P235" s="11"/>
+      <c r="Q235" s="11"/>
+      <c r="R235" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="15">
+        <v>44565.0</v>
+      </c>
+      <c r="B236" s="11"/>
+      <c r="C236" s="11"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="11"/>
+      <c r="H236" s="11"/>
+      <c r="I236" s="11"/>
+      <c r="J236" s="18"/>
+      <c r="K236" s="11"/>
+      <c r="L236" s="11"/>
+      <c r="M236" s="11"/>
+      <c r="N236" s="11"/>
+      <c r="O236" s="11"/>
+      <c r="P236" s="11"/>
+      <c r="Q236" s="11"/>
+      <c r="R236" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="15">
+        <v>44566.0</v>
+      </c>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="11"/>
+      <c r="J237" s="18"/>
+      <c r="K237" s="11"/>
+      <c r="L237" s="11"/>
+      <c r="M237" s="11"/>
+      <c r="N237" s="11"/>
+      <c r="O237" s="11"/>
+      <c r="P237" s="11"/>
+      <c r="Q237" s="11"/>
+      <c r="R237" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="15">
+        <v>44567.0</v>
+      </c>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="18"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="11"/>
+      <c r="J238" s="18"/>
+      <c r="K238" s="11"/>
+      <c r="L238" s="11"/>
+      <c r="M238" s="11"/>
+      <c r="N238" s="11"/>
+      <c r="O238" s="11"/>
+      <c r="P238" s="11"/>
+      <c r="Q238" s="11"/>
+      <c r="R238" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="15">
+        <v>44568.0</v>
+      </c>
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="18"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="11"/>
+      <c r="I239" s="11"/>
+      <c r="J239" s="18"/>
+      <c r="K239" s="11"/>
+      <c r="L239" s="11"/>
+      <c r="M239" s="11"/>
+      <c r="N239" s="11"/>
+      <c r="O239" s="11"/>
+      <c r="P239" s="11"/>
+      <c r="Q239" s="11"/>
+      <c r="R239" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="15">
+        <v>44569.0</v>
+      </c>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="18"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="11"/>
+      <c r="I240" s="11"/>
+      <c r="J240" s="18"/>
+      <c r="K240" s="11"/>
+      <c r="L240" s="11"/>
+      <c r="M240" s="11"/>
+      <c r="N240" s="11"/>
+      <c r="O240" s="11"/>
+      <c r="P240" s="11"/>
+      <c r="Q240" s="11"/>
+      <c r="R240" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="15">
+        <v>44570.0</v>
+      </c>
+      <c r="B241" s="11"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="18"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="11"/>
+      <c r="J241" s="18"/>
+      <c r="K241" s="11"/>
+      <c r="L241" s="11"/>
+      <c r="M241" s="11"/>
+      <c r="N241" s="11"/>
+      <c r="O241" s="11"/>
+      <c r="P241" s="11"/>
+      <c r="Q241" s="11"/>
+      <c r="R241" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="15">
+        <v>44571.0</v>
+      </c>
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="18"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="11"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="11"/>
+      <c r="L242" s="11"/>
+      <c r="M242" s="11"/>
+      <c r="N242" s="11"/>
+      <c r="O242" s="11"/>
+      <c r="P242" s="11"/>
+      <c r="Q242" s="11"/>
+      <c r="R242" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="15">
+        <v>44572.0</v>
+      </c>
+      <c r="B243" s="11"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="18"/>
+      <c r="E243" s="11"/>
+      <c r="F243" s="11"/>
+      <c r="G243" s="11"/>
+      <c r="H243" s="11"/>
+      <c r="I243" s="11"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="11"/>
+      <c r="L243" s="11"/>
+      <c r="M243" s="11"/>
+      <c r="N243" s="11"/>
+      <c r="O243" s="11"/>
+      <c r="P243" s="11"/>
+      <c r="Q243" s="11"/>
+      <c r="R243" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="15">
+        <v>44573.0</v>
+      </c>
+      <c r="B244" s="11"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="18"/>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11"/>
+      <c r="G244" s="11"/>
+      <c r="H244" s="11"/>
+      <c r="I244" s="11"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="11"/>
+      <c r="L244" s="11"/>
+      <c r="M244" s="11"/>
+      <c r="N244" s="11"/>
+      <c r="O244" s="11"/>
+      <c r="P244" s="11"/>
+      <c r="Q244" s="11"/>
+      <c r="R244" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="15">
+        <v>44574.0</v>
+      </c>
+      <c r="B245" s="11"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="18"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="11"/>
+      <c r="I245" s="11"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="11"/>
+      <c r="L245" s="11"/>
+      <c r="M245" s="11"/>
+      <c r="N245" s="11"/>
+      <c r="O245" s="11"/>
+      <c r="P245" s="11"/>
+      <c r="Q245" s="11"/>
+      <c r="R245" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="15">
+        <v>44575.0</v>
+      </c>
+      <c r="B246" s="11"/>
+      <c r="C246" s="11"/>
+      <c r="D246" s="18"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="11"/>
+      <c r="J246" s="11"/>
+      <c r="K246" s="11"/>
+      <c r="L246" s="11"/>
+      <c r="M246" s="11"/>
+      <c r="N246" s="11"/>
+      <c r="O246" s="11"/>
+      <c r="P246" s="11"/>
+      <c r="Q246" s="11"/>
+      <c r="R246" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="15">
+        <v>44576.0</v>
+      </c>
+      <c r="B247" s="11"/>
+      <c r="C247" s="11"/>
+      <c r="D247" s="18"/>
+      <c r="E247" s="11"/>
+      <c r="F247" s="11"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="11"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="11"/>
+      <c r="L247" s="11"/>
+      <c r="M247" s="11"/>
+      <c r="N247" s="11"/>
+      <c r="O247" s="11"/>
+      <c r="P247" s="11"/>
+      <c r="Q247" s="11"/>
+      <c r="R247" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="15">
+        <v>44577.0</v>
+      </c>
+      <c r="B248" s="11"/>
+      <c r="C248" s="11"/>
+      <c r="D248" s="18"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="11"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="11"/>
+      <c r="L248" s="11"/>
+      <c r="M248" s="11"/>
+      <c r="N248" s="11"/>
+      <c r="O248" s="11"/>
+      <c r="P248" s="11"/>
+      <c r="Q248" s="11"/>
+      <c r="R248" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="15">
+        <v>44578.0</v>
+      </c>
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="18"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="11"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="11"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="11"/>
+      <c r="L249" s="11"/>
+      <c r="M249" s="11"/>
+      <c r="N249" s="11"/>
+      <c r="O249" s="11"/>
+      <c r="P249" s="11"/>
+      <c r="Q249" s="11"/>
+      <c r="R249" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="15">
+        <v>44579.0</v>
+      </c>
+      <c r="B250" s="11"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="18"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="11"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="11"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="11"/>
+      <c r="L250" s="11"/>
+      <c r="M250" s="11"/>
+      <c r="N250" s="11"/>
+      <c r="O250" s="11"/>
+      <c r="P250" s="11"/>
+      <c r="Q250" s="11"/>
+      <c r="R250" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="15">
+        <v>44580.0</v>
+      </c>
+      <c r="B251" s="11"/>
+      <c r="C251" s="11"/>
+      <c r="D251" s="18"/>
+      <c r="E251" s="11"/>
+      <c r="F251" s="11"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="11"/>
+      <c r="I251" s="11"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="11"/>
+      <c r="L251" s="11"/>
+      <c r="M251" s="11"/>
+      <c r="N251" s="11"/>
+      <c r="O251" s="11"/>
+      <c r="P251" s="11"/>
+      <c r="Q251" s="11"/>
+      <c r="R251" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="15">
+        <v>44581.0</v>
+      </c>
+      <c r="B252" s="11"/>
+      <c r="C252" s="11"/>
+      <c r="D252" s="18"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="11"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="11"/>
+      <c r="I252" s="11"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="11"/>
+      <c r="L252" s="11"/>
+      <c r="M252" s="11"/>
+      <c r="N252" s="11"/>
+      <c r="O252" s="11"/>
+      <c r="P252" s="11"/>
+      <c r="Q252" s="11"/>
+      <c r="R252" s="13">
+        <v>1.278032313</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="15">
+        <v>44582.0</v>
+      </c>
+      <c r="B253" s="11"/>
+      <c r="C253" s="11"/>
+      <c r="D253" s="18"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="11"/>
+      <c r="L253" s="11"/>
+      <c r="M253" s="11"/>
+      <c r="N253" s="11"/>
+      <c r="O253" s="11"/>
+      <c r="P253" s="11"/>
+      <c r="Q253" s="11"/>
+      <c r="R253" s="13">
+        <v>1.1994003</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="15">
+        <v>44583.0</v>
+      </c>
+      <c r="B254" s="11"/>
+      <c r="C254" s="11"/>
+      <c r="D254" s="18"/>
+      <c r="E254" s="11"/>
+      <c r="F254" s="11"/>
+      <c r="G254" s="11"/>
+      <c r="H254" s="11"/>
+      <c r="I254" s="11"/>
+      <c r="J254" s="11"/>
+      <c r="K254" s="11"/>
+      <c r="L254" s="11"/>
+      <c r="M254" s="11"/>
+      <c r="N254" s="11"/>
+      <c r="O254" s="11"/>
+      <c r="P254" s="11"/>
+      <c r="Q254" s="11"/>
+      <c r="R254" s="13">
+        <v>-2.548725637</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="15">
+        <v>44584.0</v>
+      </c>
+      <c r="B255" s="11"/>
+      <c r="C255" s="11"/>
+      <c r="D255" s="18"/>
+      <c r="E255" s="11"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="11"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="11"/>
+      <c r="L255" s="11"/>
+      <c r="M255" s="11"/>
+      <c r="N255" s="11"/>
+      <c r="O255" s="11"/>
+      <c r="P255" s="11"/>
+      <c r="Q255" s="11"/>
+      <c r="R255" s="13">
+        <v>-6.296851574</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="15">
+        <v>44585.0</v>
+      </c>
+      <c r="B256" s="11"/>
+      <c r="C256" s="11"/>
+      <c r="D256" s="18"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="11"/>
+      <c r="G256" s="11"/>
+      <c r="H256" s="11"/>
+      <c r="I256" s="11"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="11"/>
+      <c r="L256" s="11"/>
+      <c r="M256" s="11"/>
+      <c r="N256" s="11"/>
+      <c r="O256" s="11"/>
+      <c r="P256" s="11"/>
+      <c r="Q256" s="11"/>
+      <c r="R256" s="13">
+        <v>-5.956112853</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="15">
+        <v>44586.0</v>
+      </c>
+      <c r="B257" s="11"/>
+      <c r="C257" s="11"/>
+      <c r="D257" s="18"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="11"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="11"/>
+      <c r="L257" s="11"/>
+      <c r="M257" s="11"/>
+      <c r="N257" s="11"/>
+      <c r="O257" s="11"/>
+      <c r="P257" s="11"/>
+      <c r="Q257" s="11"/>
+      <c r="R257" s="13">
+        <v>-4.060066741</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="15">
+        <v>44587.0</v>
+      </c>
+      <c r="B258" s="11"/>
+      <c r="C258" s="11"/>
+      <c r="D258" s="18"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="11"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="11"/>
+      <c r="L258" s="11"/>
+      <c r="M258" s="11"/>
+      <c r="N258" s="11"/>
+      <c r="O258" s="11"/>
+      <c r="P258" s="11"/>
+      <c r="Q258" s="11"/>
+      <c r="R258" s="13">
+        <v>-3.565166569</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="15">
+        <v>44588.0</v>
+      </c>
+      <c r="B259" s="11"/>
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="11"/>
+      <c r="I259" s="11"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="11"/>
+      <c r="L259" s="11"/>
+      <c r="M259" s="11"/>
+      <c r="N259" s="11"/>
+      <c r="O259" s="11"/>
+      <c r="P259" s="11"/>
+      <c r="Q259" s="11"/>
+      <c r="R259" s="13">
+        <v>-1.253918495</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="15">
+        <v>44589.0</v>
+      </c>
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="11"/>
+      <c r="G260" s="11"/>
+      <c r="H260" s="11"/>
+      <c r="I260" s="11"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="11"/>
+      <c r="L260" s="11"/>
+      <c r="M260" s="11"/>
+      <c r="N260" s="11"/>
+      <c r="O260" s="11"/>
+      <c r="P260" s="11"/>
+      <c r="Q260" s="11"/>
+      <c r="R260" s="13">
+        <v>-0.530503979</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="15">
+        <v>44590.0</v>
+      </c>
+      <c r="B261" s="11"/>
+      <c r="C261" s="11"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
+      <c r="F261" s="11"/>
+      <c r="G261" s="11"/>
+      <c r="H261" s="11"/>
+      <c r="I261" s="11"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="11"/>
+      <c r="L261" s="11"/>
+      <c r="M261" s="11"/>
+      <c r="N261" s="11"/>
+      <c r="O261" s="11"/>
+      <c r="P261" s="11"/>
+      <c r="Q261" s="11"/>
+      <c r="R261" s="13">
+        <v>-3.651115619</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="15">
+        <v>44591.0</v>
+      </c>
+      <c r="B262" s="11"/>
+      <c r="C262" s="11"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="11"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="11"/>
+      <c r="L262" s="11"/>
+      <c r="M262" s="11"/>
+      <c r="N262" s="11"/>
+      <c r="O262" s="11"/>
+      <c r="P262" s="11"/>
+      <c r="Q262" s="11"/>
+      <c r="R262" s="13">
+        <v>-6.896551724</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="15">
+        <v>44592.0</v>
+      </c>
+      <c r="B263" s="11"/>
+      <c r="C263" s="11"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="11"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="11"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="11"/>
+      <c r="L263" s="11"/>
+      <c r="M263" s="11"/>
+      <c r="N263" s="11"/>
+      <c r="O263" s="11"/>
+      <c r="P263" s="11"/>
+      <c r="Q263" s="11"/>
+      <c r="R263" s="13">
+        <v>-3.372489579</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="15">
+        <v>44593.0</v>
+      </c>
+      <c r="B264" s="11"/>
+      <c r="C264" s="11"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="11"/>
+      <c r="G264" s="11"/>
+      <c r="H264" s="11"/>
+      <c r="I264" s="11"/>
+      <c r="J264" s="11"/>
+      <c r="K264" s="11"/>
+      <c r="L264" s="11"/>
+      <c r="M264" s="11"/>
+      <c r="N264" s="11"/>
+      <c r="O264" s="11"/>
+      <c r="P264" s="11"/>
+      <c r="Q264" s="11"/>
+      <c r="R264" s="13">
+        <v>-1.477832512</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="15">
+        <v>44594.0</v>
+      </c>
+      <c r="B265" s="11"/>
+      <c r="C265" s="11"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="11"/>
+      <c r="G265" s="11"/>
+      <c r="H265" s="11"/>
+      <c r="I265" s="11"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="11"/>
+      <c r="L265" s="11"/>
+      <c r="M265" s="11"/>
+      <c r="N265" s="11"/>
+      <c r="O265" s="11"/>
+      <c r="P265" s="11"/>
+      <c r="Q265" s="11"/>
+      <c r="R265" s="13">
+        <v>-3.017241379</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="15">
+        <v>44595.0</v>
+      </c>
+      <c r="B266" s="11"/>
+      <c r="C266" s="11"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="11"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
+      <c r="I266" s="11"/>
+      <c r="J266" s="11"/>
+      <c r="K266" s="11"/>
+      <c r="L266" s="11"/>
+      <c r="M266" s="11"/>
+      <c r="N266" s="11"/>
+      <c r="O266" s="11"/>
+      <c r="P266" s="11"/>
+      <c r="Q266" s="11"/>
+      <c r="R266" s="13">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="15">
+        <v>44596.0</v>
+      </c>
+      <c r="B267" s="11"/>
+      <c r="C267" s="11"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="11"/>
+      <c r="I267" s="11"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="11"/>
+      <c r="M267" s="11"/>
+      <c r="N267" s="11"/>
+      <c r="O267" s="11"/>
+      <c r="P267" s="11"/>
+      <c r="Q267" s="11"/>
+      <c r="R267" s="13">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="15">
+        <v>44597.0</v>
+      </c>
+      <c r="B268" s="11"/>
+      <c r="C268" s="11"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11"/>
+      <c r="G268" s="11"/>
+      <c r="H268" s="11"/>
+      <c r="I268" s="11"/>
+      <c r="J268" s="11"/>
+      <c r="K268" s="11"/>
+      <c r="L268" s="11"/>
+      <c r="M268" s="11"/>
+      <c r="N268" s="11"/>
+      <c r="O268" s="11"/>
+      <c r="P268" s="11"/>
+      <c r="Q268" s="11"/>
+      <c r="R268" s="13">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="15">
+        <v>44598.0</v>
+      </c>
+      <c r="B269" s="11"/>
+      <c r="C269" s="11"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
+      <c r="F269" s="11"/>
+      <c r="G269" s="11"/>
+      <c r="H269" s="11"/>
+      <c r="I269" s="11"/>
+      <c r="J269" s="11"/>
+      <c r="K269" s="11"/>
+      <c r="L269" s="11"/>
+      <c r="M269" s="11"/>
+      <c r="N269" s="11"/>
+      <c r="O269" s="11"/>
+      <c r="P269" s="11"/>
+      <c r="Q269" s="11"/>
+      <c r="R269" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="15">
+        <v>44599.0</v>
+      </c>
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11"/>
+      <c r="G270" s="11"/>
+      <c r="H270" s="11"/>
+      <c r="I270" s="11"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="11"/>
+      <c r="L270" s="11"/>
+      <c r="M270" s="11"/>
+      <c r="N270" s="11"/>
+      <c r="O270" s="11"/>
+      <c r="P270" s="11"/>
+      <c r="Q270" s="11"/>
+      <c r="R270" s="13">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="15">
+        <v>44600.0</v>
+      </c>
+      <c r="B271" s="11"/>
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="11"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="11"/>
+      <c r="I271" s="11"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="11"/>
+      <c r="L271" s="11"/>
+      <c r="M271" s="11"/>
+      <c r="N271" s="11"/>
+      <c r="O271" s="11"/>
+      <c r="P271" s="11"/>
+      <c r="Q271" s="11"/>
+      <c r="R271" s="13">
+        <v>-1.53</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="15">
+        <v>44601.0</v>
+      </c>
+      <c r="B272" s="11"/>
+      <c r="C272" s="11"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="11"/>
+      <c r="G272" s="11"/>
+      <c r="H272" s="11"/>
+      <c r="I272" s="11"/>
+      <c r="J272" s="11"/>
+      <c r="K272" s="11"/>
+      <c r="L272" s="11"/>
+      <c r="M272" s="11"/>
+      <c r="N272" s="11"/>
+      <c r="O272" s="11"/>
+      <c r="P272" s="11"/>
+      <c r="Q272" s="11"/>
+      <c r="R272" s="13">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="15">
+        <v>44602.0</v>
+      </c>
+      <c r="B273" s="11"/>
+      <c r="C273" s="11"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="11"/>
+      <c r="H273" s="11"/>
+      <c r="I273" s="11"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="11"/>
+      <c r="L273" s="11"/>
+      <c r="M273" s="11"/>
+      <c r="N273" s="11"/>
+      <c r="O273" s="11"/>
+      <c r="P273" s="11"/>
+      <c r="Q273" s="11"/>
+      <c r="R273" s="13">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="15">
+        <v>44603.0</v>
+      </c>
+      <c r="B274" s="11"/>
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
+      <c r="H274" s="11"/>
+      <c r="I274" s="11"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="11"/>
+      <c r="L274" s="11"/>
+      <c r="M274" s="11"/>
+      <c r="N274" s="11"/>
+      <c r="O274" s="11"/>
+      <c r="P274" s="11"/>
+      <c r="Q274" s="11"/>
+      <c r="R274" s="13">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="15">
+        <v>44604.0</v>
+      </c>
+      <c r="B275" s="11"/>
+      <c r="C275" s="11"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11"/>
+      <c r="F275" s="11"/>
+      <c r="G275" s="11"/>
+      <c r="H275" s="11"/>
+      <c r="I275" s="11"/>
+      <c r="J275" s="11"/>
+      <c r="K275" s="11"/>
+      <c r="L275" s="11"/>
+      <c r="M275" s="11"/>
+      <c r="N275" s="11"/>
+      <c r="O275" s="11"/>
+      <c r="P275" s="11"/>
+      <c r="Q275" s="11"/>
+      <c r="R275" s="13">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="15">
+        <v>44605.0</v>
+      </c>
+      <c r="B276" s="11"/>
+      <c r="C276" s="11"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
+      <c r="F276" s="11"/>
+      <c r="G276" s="11"/>
+      <c r="H276" s="11"/>
+      <c r="I276" s="11"/>
+      <c r="J276" s="11"/>
+      <c r="K276" s="11"/>
+      <c r="L276" s="11"/>
+      <c r="M276" s="11"/>
+      <c r="N276" s="11"/>
+      <c r="O276" s="11"/>
+      <c r="P276" s="11"/>
+      <c r="Q276" s="11"/>
+      <c r="R276" s="13">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="15">
+        <v>44606.0</v>
+      </c>
+      <c r="B277" s="11"/>
+      <c r="C277" s="11"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
+      <c r="F277" s="11"/>
+      <c r="G277" s="11"/>
+      <c r="H277" s="11"/>
+      <c r="I277" s="11"/>
+      <c r="J277" s="11"/>
+      <c r="K277" s="11"/>
+      <c r="L277" s="11"/>
+      <c r="M277" s="11"/>
+      <c r="N277" s="11"/>
+      <c r="O277" s="11"/>
+      <c r="P277" s="11"/>
+      <c r="Q277" s="11"/>
+      <c r="R277" s="13">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="15">
+        <v>44607.0</v>
+      </c>
+      <c r="B278" s="11"/>
+      <c r="C278" s="11"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="11"/>
+      <c r="I278" s="11"/>
+      <c r="J278" s="11"/>
+      <c r="K278" s="11"/>
+      <c r="L278" s="11"/>
+      <c r="M278" s="11"/>
+      <c r="N278" s="11"/>
+      <c r="O278" s="11"/>
+      <c r="P278" s="11"/>
+      <c r="Q278" s="11"/>
+      <c r="R278" s="13">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="15">
+        <v>44608.0</v>
+      </c>
+      <c r="B279" s="11"/>
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
+      <c r="F279" s="11"/>
+      <c r="G279" s="11"/>
+      <c r="H279" s="11"/>
+      <c r="I279" s="11"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="11"/>
+      <c r="L279" s="11"/>
+      <c r="M279" s="11"/>
+      <c r="N279" s="11"/>
+      <c r="O279" s="11"/>
+      <c r="P279" s="11"/>
+      <c r="Q279" s="11"/>
+      <c r="R279" s="13">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="15">
+        <v>44609.0</v>
+      </c>
+      <c r="B280" s="11"/>
+      <c r="C280" s="11"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
+      <c r="F280" s="11"/>
+      <c r="G280" s="11"/>
+      <c r="H280" s="11"/>
+      <c r="I280" s="11"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="11"/>
+      <c r="L280" s="11"/>
+      <c r="M280" s="11"/>
+      <c r="N280" s="11"/>
+      <c r="O280" s="11"/>
+      <c r="P280" s="11"/>
+      <c r="Q280" s="11"/>
+      <c r="R280" s="13">
+        <v>-1.964285714</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="15">
+        <v>44610.0</v>
+      </c>
+      <c r="B281" s="11"/>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11"/>
+      <c r="G281" s="11"/>
+      <c r="H281" s="11"/>
+      <c r="I281" s="11"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="11"/>
+      <c r="L281" s="11"/>
+      <c r="M281" s="11"/>
+      <c r="N281" s="11"/>
+      <c r="O281" s="11"/>
+      <c r="P281" s="11"/>
+      <c r="Q281" s="11"/>
+      <c r="R281" s="13">
+        <v>-0.735294118</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="15">
+        <v>44611.0</v>
+      </c>
+      <c r="B282" s="11"/>
+      <c r="C282" s="11"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11"/>
+      <c r="G282" s="11"/>
+      <c r="H282" s="11"/>
+      <c r="I282" s="11"/>
+      <c r="J282" s="11"/>
+      <c r="K282" s="11"/>
+      <c r="L282" s="11"/>
+      <c r="M282" s="11"/>
+      <c r="N282" s="11"/>
+      <c r="O282" s="11"/>
+      <c r="P282" s="11"/>
+      <c r="Q282" s="11"/>
+      <c r="R282" s="13">
+        <v>2.272727273</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="15">
+        <v>44612.0</v>
+      </c>
+      <c r="B283" s="11"/>
+      <c r="C283" s="11"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
+      <c r="F283" s="11"/>
+      <c r="G283" s="11"/>
+      <c r="H283" s="11"/>
+      <c r="I283" s="11"/>
+      <c r="J283" s="11"/>
+      <c r="K283" s="11"/>
+      <c r="L283" s="11"/>
+      <c r="M283" s="11"/>
+      <c r="N283" s="11"/>
+      <c r="O283" s="11"/>
+      <c r="P283" s="11"/>
+      <c r="Q283" s="11"/>
+      <c r="R283" s="13">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="15">
+        <v>44613.0</v>
+      </c>
+      <c r="B284" s="11"/>
+      <c r="C284" s="11"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="11"/>
+      <c r="F284" s="11"/>
+      <c r="G284" s="11"/>
+      <c r="H284" s="11"/>
+      <c r="I284" s="11"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="11"/>
+      <c r="L284" s="11"/>
+      <c r="M284" s="11"/>
+      <c r="N284" s="11"/>
+      <c r="O284" s="11"/>
+      <c r="P284" s="11"/>
+      <c r="Q284" s="11"/>
+      <c r="R284" s="13">
+        <v>0.403225807</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="15">
+        <v>44614.0</v>
+      </c>
+      <c r="B285" s="11"/>
+      <c r="C285" s="11"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="11"/>
+      <c r="H285" s="11"/>
+      <c r="I285" s="11"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="11"/>
+      <c r="L285" s="11"/>
+      <c r="M285" s="11"/>
+      <c r="N285" s="11"/>
+      <c r="O285" s="11"/>
+      <c r="P285" s="11"/>
+      <c r="Q285" s="11"/>
+      <c r="R285" s="13">
+        <v>-1.875</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="15">
+        <v>44615.0</v>
+      </c>
+      <c r="B286" s="11"/>
+      <c r="C286" s="11"/>
+      <c r="D286" s="11"/>
+      <c r="E286" s="11"/>
+      <c r="F286" s="11"/>
+      <c r="G286" s="11"/>
+      <c r="H286" s="11"/>
+      <c r="I286" s="11"/>
+      <c r="J286" s="11"/>
+      <c r="K286" s="11"/>
+      <c r="L286" s="11"/>
+      <c r="M286" s="11"/>
+      <c r="N286" s="11"/>
+      <c r="O286" s="11"/>
+      <c r="P286" s="11"/>
+      <c r="Q286" s="11"/>
+      <c r="R286" s="13">
+        <v>-4.956896552</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="15">
+        <v>44616.0</v>
+      </c>
+      <c r="B287" s="11"/>
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11"/>
+      <c r="G287" s="11"/>
+      <c r="H287" s="11"/>
+      <c r="I287" s="11"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="11"/>
+      <c r="L287" s="11"/>
+      <c r="M287" s="11"/>
+      <c r="N287" s="11"/>
+      <c r="O287" s="11"/>
+      <c r="P287" s="11"/>
+      <c r="Q287" s="11"/>
+      <c r="R287" s="13">
+        <v>-4.241071429</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="15">
+        <v>44617.0</v>
+      </c>
+      <c r="B288" s="11"/>
+      <c r="C288" s="11"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
+      <c r="F288" s="11"/>
+      <c r="G288" s="11"/>
+      <c r="H288" s="11"/>
+      <c r="I288" s="11"/>
+      <c r="J288" s="11"/>
+      <c r="K288" s="11"/>
+      <c r="L288" s="11"/>
+      <c r="M288" s="11"/>
+      <c r="N288" s="11"/>
+      <c r="O288" s="11"/>
+      <c r="P288" s="11"/>
+      <c r="Q288" s="11"/>
+      <c r="R288" s="13">
+        <v>-0.694444444</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="15">
+        <v>44618.0</v>
+      </c>
+      <c r="B289" s="11"/>
+      <c r="C289" s="11"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11"/>
+      <c r="F289" s="11"/>
+      <c r="G289" s="11"/>
+      <c r="H289" s="11"/>
+      <c r="I289" s="11"/>
+      <c r="J289" s="11"/>
+      <c r="K289" s="11"/>
+      <c r="L289" s="11"/>
+      <c r="M289" s="11"/>
+      <c r="N289" s="11"/>
+      <c r="O289" s="11"/>
+      <c r="P289" s="11"/>
+      <c r="Q289" s="11"/>
+      <c r="R289" s="13">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="15">
+        <v>44619.0</v>
+      </c>
+      <c r="B290" s="11"/>
+      <c r="C290" s="11"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11"/>
+      <c r="G290" s="11"/>
+      <c r="H290" s="11"/>
+      <c r="I290" s="11"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="11"/>
+      <c r="L290" s="11"/>
+      <c r="M290" s="11"/>
+      <c r="N290" s="11"/>
+      <c r="O290" s="11"/>
+      <c r="P290" s="11"/>
+      <c r="Q290" s="11"/>
+      <c r="R290" s="13">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="15">
+        <v>44620.0</v>
+      </c>
+      <c r="B291" s="11"/>
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="11"/>
+      <c r="H291" s="11"/>
+      <c r="I291" s="11"/>
+      <c r="J291" s="11"/>
+      <c r="K291" s="11"/>
+      <c r="L291" s="11"/>
+      <c r="M291" s="11"/>
+      <c r="N291" s="11"/>
+      <c r="O291" s="11"/>
+      <c r="P291" s="11"/>
+      <c r="Q291" s="11"/>
+      <c r="R291" s="13">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="15">
+        <v>44621.0</v>
+      </c>
+      <c r="B292" s="11"/>
+      <c r="C292" s="11"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="11"/>
+      <c r="F292" s="11"/>
+      <c r="G292" s="11"/>
+      <c r="H292" s="11"/>
+      <c r="I292" s="11"/>
+      <c r="J292" s="11"/>
+      <c r="K292" s="11"/>
+      <c r="L292" s="11"/>
+      <c r="M292" s="11"/>
+      <c r="N292" s="11"/>
+      <c r="O292" s="11"/>
+      <c r="P292" s="11"/>
+      <c r="Q292" s="11"/>
+      <c r="R292" s="13">
+        <v>-0.543478261</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="15">
+        <v>44622.0</v>
+      </c>
+      <c r="B293" s="11"/>
+      <c r="C293" s="11"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
+      <c r="F293" s="11"/>
+      <c r="G293" s="11"/>
+      <c r="H293" s="11"/>
+      <c r="I293" s="11"/>
+      <c r="J293" s="11"/>
+      <c r="K293" s="11"/>
+      <c r="L293" s="11"/>
+      <c r="M293" s="11"/>
+      <c r="N293" s="11"/>
+      <c r="O293" s="11"/>
+      <c r="P293" s="11"/>
+      <c r="Q293" s="11"/>
+      <c r="R293" s="13">
+        <v>-1.988636364</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="15">
+        <v>44623.0</v>
+      </c>
+      <c r="B294" s="11"/>
+      <c r="C294" s="11"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="11"/>
+      <c r="F294" s="11"/>
+      <c r="G294" s="11"/>
+      <c r="H294" s="11"/>
+      <c r="I294" s="11"/>
+      <c r="J294" s="11"/>
+      <c r="K294" s="11"/>
+      <c r="L294" s="11"/>
+      <c r="M294" s="11"/>
+      <c r="N294" s="11"/>
+      <c r="O294" s="11"/>
+      <c r="P294" s="11"/>
+      <c r="Q294" s="11"/>
+      <c r="R294" s="13">
+        <v>-2.678571429</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="15">
+        <v>44624.0</v>
+      </c>
+      <c r="B295" s="11"/>
+      <c r="C295" s="11"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="11"/>
+      <c r="F295" s="11"/>
+      <c r="G295" s="11"/>
+      <c r="H295" s="11"/>
+      <c r="I295" s="11"/>
+      <c r="J295" s="11"/>
+      <c r="K295" s="11"/>
+      <c r="L295" s="11"/>
+      <c r="M295" s="11"/>
+      <c r="N295" s="11"/>
+      <c r="O295" s="11"/>
+      <c r="P295" s="11"/>
+      <c r="Q295" s="11"/>
+      <c r="R295" s="13">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="15">
+        <v>44625.0</v>
+      </c>
+      <c r="B296" s="11"/>
+      <c r="C296" s="11"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="11"/>
+      <c r="F296" s="11"/>
+      <c r="G296" s="11"/>
+      <c r="H296" s="11"/>
+      <c r="I296" s="11"/>
+      <c r="J296" s="11"/>
+      <c r="K296" s="11"/>
+      <c r="L296" s="11"/>
+      <c r="M296" s="11"/>
+      <c r="N296" s="11"/>
+      <c r="O296" s="11"/>
+      <c r="P296" s="11"/>
+      <c r="Q296" s="11"/>
+      <c r="R296" s="13">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="15">
+        <v>44626.0</v>
+      </c>
+      <c r="B297" s="11"/>
+      <c r="C297" s="11"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="11"/>
+      <c r="F297" s="11"/>
+      <c r="G297" s="11"/>
+      <c r="H297" s="11"/>
+      <c r="I297" s="11"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="11"/>
+      <c r="L297" s="11"/>
+      <c r="M297" s="11"/>
+      <c r="N297" s="11"/>
+      <c r="O297" s="11"/>
+      <c r="P297" s="11"/>
+      <c r="Q297" s="11"/>
+      <c r="R297" s="13">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="15">
+        <v>44627.0</v>
+      </c>
+      <c r="B298" s="11"/>
+      <c r="C298" s="11"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="11"/>
+      <c r="F298" s="11"/>
+      <c r="G298" s="11"/>
+      <c r="H298" s="11"/>
+      <c r="I298" s="11"/>
+      <c r="J298" s="11"/>
+      <c r="K298" s="11"/>
+      <c r="L298" s="11"/>
+      <c r="M298" s="11"/>
+      <c r="N298" s="11"/>
+      <c r="O298" s="11"/>
+      <c r="P298" s="11"/>
+      <c r="Q298" s="11"/>
+      <c r="R298" s="13">
+        <v>3.676470588</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="15">
+        <v>44628.0</v>
+      </c>
+      <c r="B299" s="11"/>
+      <c r="C299" s="11"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="11"/>
+      <c r="F299" s="11"/>
+      <c r="G299" s="11"/>
+      <c r="H299" s="11"/>
+      <c r="I299" s="11"/>
+      <c r="J299" s="11"/>
+      <c r="K299" s="11"/>
+      <c r="L299" s="11"/>
+      <c r="M299" s="11"/>
+      <c r="N299" s="11"/>
+      <c r="O299" s="11"/>
+      <c r="P299" s="11"/>
+      <c r="Q299" s="11"/>
+      <c r="R299" s="13">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="15">
+        <v>44629.0</v>
+      </c>
+      <c r="B300" s="11"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
+      <c r="G300" s="11"/>
+      <c r="H300" s="11"/>
+      <c r="I300" s="11"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="11"/>
+      <c r="L300" s="11"/>
+      <c r="M300" s="11"/>
+      <c r="N300" s="11"/>
+      <c r="O300" s="11"/>
+      <c r="P300" s="11"/>
+      <c r="Q300" s="11"/>
+      <c r="R300" s="13">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="15">
+        <v>44630.0</v>
+      </c>
+      <c r="B301" s="11"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11"/>
+      <c r="G301" s="11"/>
+      <c r="H301" s="11"/>
+      <c r="I301" s="11"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="11"/>
+      <c r="L301" s="11"/>
+      <c r="M301" s="11"/>
+      <c r="N301" s="11"/>
+      <c r="O301" s="11"/>
+      <c r="P301" s="11"/>
+      <c r="Q301" s="11"/>
+      <c r="R301" s="13">
+        <v>-2.232142857</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="15">
+        <v>44631.0</v>
+      </c>
+      <c r="B302" s="11"/>
+      <c r="C302" s="11"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="11"/>
+      <c r="F302" s="11"/>
+      <c r="G302" s="11"/>
+      <c r="H302" s="11"/>
+      <c r="I302" s="11"/>
+      <c r="J302" s="11"/>
+      <c r="K302" s="11"/>
+      <c r="L302" s="11"/>
+      <c r="M302" s="11"/>
+      <c r="N302" s="11"/>
+      <c r="O302" s="11"/>
+      <c r="P302" s="11"/>
+      <c r="Q302" s="11"/>
+      <c r="R302" s="13">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="15">
+        <v>44632.0</v>
+      </c>
+      <c r="B303" s="11"/>
+      <c r="C303" s="11"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
+      <c r="F303" s="11"/>
+      <c r="G303" s="11"/>
+      <c r="H303" s="11"/>
+      <c r="I303" s="11"/>
+      <c r="J303" s="11"/>
+      <c r="K303" s="11"/>
+      <c r="L303" s="11"/>
+      <c r="M303" s="11"/>
+      <c r="N303" s="11"/>
+      <c r="O303" s="11"/>
+      <c r="P303" s="11"/>
+      <c r="Q303" s="11"/>
+      <c r="R303" s="13">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="15">
+        <v>44633.0</v>
+      </c>
+      <c r="B304" s="11"/>
+      <c r="C304" s="11"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11"/>
+      <c r="F304" s="11"/>
+      <c r="G304" s="11"/>
+      <c r="H304" s="11"/>
+      <c r="I304" s="11"/>
+      <c r="J304" s="11"/>
+      <c r="K304" s="11"/>
+      <c r="L304" s="11"/>
+      <c r="M304" s="11"/>
+      <c r="N304" s="11"/>
+      <c r="O304" s="11"/>
+      <c r="P304" s="11"/>
+      <c r="Q304" s="11"/>
+      <c r="R304" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="15">
+        <v>44634.0</v>
+      </c>
+      <c r="B305" s="11"/>
+      <c r="C305" s="11"/>
+      <c r="D305" s="11"/>
+      <c r="E305" s="11"/>
+      <c r="F305" s="11"/>
+      <c r="G305" s="11"/>
+      <c r="H305" s="11"/>
+      <c r="I305" s="11"/>
+      <c r="J305" s="11"/>
+      <c r="K305" s="11"/>
+      <c r="L305" s="11"/>
+      <c r="M305" s="11"/>
+      <c r="N305" s="11"/>
+      <c r="O305" s="11"/>
+      <c r="P305" s="11"/>
+      <c r="Q305" s="11"/>
+      <c r="R305" s="13">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="15">
+        <v>44635.0</v>
+      </c>
+      <c r="B306" s="11"/>
+      <c r="C306" s="11"/>
+      <c r="D306" s="11"/>
+      <c r="E306" s="11"/>
+      <c r="F306" s="11"/>
+      <c r="G306" s="11"/>
+      <c r="H306" s="11"/>
+      <c r="I306" s="11"/>
+      <c r="J306" s="11"/>
+      <c r="K306" s="11"/>
+      <c r="L306" s="11"/>
+      <c r="M306" s="11"/>
+      <c r="N306" s="11"/>
+      <c r="O306" s="11"/>
+      <c r="P306" s="11"/>
+      <c r="Q306" s="11"/>
+      <c r="R306" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="15">
+        <v>44636.0</v>
+      </c>
+      <c r="B307" s="11"/>
+      <c r="C307" s="11"/>
+      <c r="D307" s="11"/>
+      <c r="E307" s="11"/>
+      <c r="F307" s="11"/>
+      <c r="G307" s="11"/>
+      <c r="H307" s="11"/>
+      <c r="I307" s="11"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="11"/>
+      <c r="L307" s="11"/>
+      <c r="M307" s="11"/>
+      <c r="N307" s="11"/>
+      <c r="O307" s="11"/>
+      <c r="P307" s="11"/>
+      <c r="Q307" s="11"/>
+      <c r="R307" s="13">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="15">
+        <v>44637.0</v>
+      </c>
+      <c r="B308" s="11"/>
+      <c r="C308" s="11"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="11"/>
+      <c r="F308" s="11"/>
+      <c r="G308" s="11"/>
+      <c r="H308" s="11"/>
+      <c r="I308" s="11"/>
+      <c r="J308" s="11"/>
+      <c r="K308" s="11"/>
+      <c r="L308" s="11"/>
+      <c r="M308" s="11"/>
+      <c r="N308" s="11"/>
+      <c r="O308" s="11"/>
+      <c r="P308" s="11"/>
+      <c r="Q308" s="11"/>
+      <c r="R308" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="15">
+        <v>44638.0</v>
+      </c>
+      <c r="B309" s="11"/>
+      <c r="C309" s="11"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="11"/>
+      <c r="F309" s="11"/>
+      <c r="G309" s="11"/>
+      <c r="H309" s="11"/>
+      <c r="I309" s="11"/>
+      <c r="J309" s="11"/>
+      <c r="K309" s="11"/>
+      <c r="L309" s="11"/>
+      <c r="M309" s="11"/>
+      <c r="N309" s="11"/>
+      <c r="O309" s="11"/>
+      <c r="P309" s="11"/>
+      <c r="Q309" s="11"/>
+      <c r="R309" s="13">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="15">
+        <v>44639.0</v>
+      </c>
+      <c r="B310" s="11"/>
+      <c r="C310" s="11"/>
+      <c r="D310" s="11"/>
+      <c r="E310" s="11"/>
+      <c r="F310" s="11"/>
+      <c r="G310" s="11"/>
+      <c r="H310" s="11"/>
+      <c r="I310" s="11"/>
+      <c r="J310" s="11"/>
+      <c r="K310" s="11"/>
+      <c r="L310" s="11"/>
+      <c r="M310" s="11"/>
+      <c r="N310" s="11"/>
+      <c r="O310" s="11"/>
+      <c r="P310" s="11"/>
+      <c r="Q310" s="11"/>
+      <c r="R310" s="13">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="15">
+        <v>44640.0</v>
+      </c>
+      <c r="B311" s="11"/>
+      <c r="C311" s="11"/>
+      <c r="D311" s="11"/>
+      <c r="E311" s="11"/>
+      <c r="F311" s="11"/>
+      <c r="G311" s="11"/>
+      <c r="H311" s="11"/>
+      <c r="I311" s="11"/>
+      <c r="J311" s="11"/>
+      <c r="K311" s="11"/>
+      <c r="L311" s="11"/>
+      <c r="M311" s="11"/>
+      <c r="N311" s="11"/>
+      <c r="O311" s="11"/>
+      <c r="P311" s="11"/>
+      <c r="Q311" s="11"/>
+      <c r="R311" s="13">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="15">
+        <v>44641.0</v>
+      </c>
+      <c r="B312" s="11"/>
+      <c r="C312" s="11"/>
+      <c r="D312" s="11"/>
+      <c r="E312" s="11"/>
+      <c r="F312" s="11"/>
+      <c r="G312" s="11"/>
+      <c r="H312" s="11"/>
+      <c r="I312" s="11"/>
+      <c r="J312" s="11"/>
+      <c r="K312" s="11"/>
+      <c r="L312" s="11"/>
+      <c r="M312" s="11"/>
+      <c r="N312" s="11"/>
+      <c r="O312" s="11"/>
+      <c r="P312" s="11"/>
+      <c r="Q312" s="11"/>
+      <c r="R312" s="13">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="15">
+        <v>44642.0</v>
+      </c>
+      <c r="B313" s="11"/>
+      <c r="C313" s="11"/>
+      <c r="D313" s="11"/>
+      <c r="E313" s="11"/>
+      <c r="F313" s="11"/>
+      <c r="G313" s="11"/>
+      <c r="H313" s="11"/>
+      <c r="I313" s="11"/>
+      <c r="J313" s="11"/>
+      <c r="K313" s="11"/>
+      <c r="L313" s="11"/>
+      <c r="M313" s="11"/>
+      <c r="N313" s="11"/>
+      <c r="O313" s="11"/>
+      <c r="P313" s="11"/>
+      <c r="Q313" s="11"/>
+      <c r="R313" s="13">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="15">
+        <v>44643.0</v>
+      </c>
+      <c r="B314" s="11"/>
+      <c r="C314" s="11"/>
+      <c r="D314" s="11"/>
+      <c r="E314" s="11"/>
+      <c r="F314" s="11"/>
+      <c r="G314" s="11"/>
+      <c r="H314" s="11"/>
+      <c r="I314" s="11"/>
+      <c r="J314" s="11"/>
+      <c r="K314" s="11"/>
+      <c r="L314" s="11"/>
+      <c r="M314" s="11"/>
+      <c r="N314" s="11"/>
+      <c r="O314" s="11"/>
+      <c r="P314" s="11"/>
+      <c r="Q314" s="11"/>
+      <c r="R314" s="13">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="15">
+        <v>44644.0</v>
+      </c>
+      <c r="B315" s="11"/>
+      <c r="C315" s="11"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="11"/>
+      <c r="F315" s="11"/>
+      <c r="G315" s="11"/>
+      <c r="H315" s="11"/>
+      <c r="I315" s="11"/>
+      <c r="J315" s="11"/>
+      <c r="K315" s="11"/>
+      <c r="L315" s="11"/>
+      <c r="M315" s="11"/>
+      <c r="N315" s="11"/>
+      <c r="O315" s="11"/>
+      <c r="P315" s="11"/>
+      <c r="Q315" s="11"/>
+      <c r="R315" s="13">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="15">
+        <v>44645.0</v>
+      </c>
+      <c r="B316" s="11"/>
+      <c r="C316" s="11"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
+      <c r="F316" s="11"/>
+      <c r="G316" s="11"/>
+      <c r="H316" s="11"/>
+      <c r="I316" s="11"/>
+      <c r="J316" s="11"/>
+      <c r="K316" s="11"/>
+      <c r="L316" s="11"/>
+      <c r="M316" s="11"/>
+      <c r="N316" s="11"/>
+      <c r="O316" s="11"/>
+      <c r="P316" s="11"/>
+      <c r="Q316" s="11"/>
+      <c r="R316" s="13">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="15">
+        <v>44646.0</v>
+      </c>
+      <c r="B317" s="11"/>
+      <c r="C317" s="11"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="11"/>
+      <c r="F317" s="11"/>
+      <c r="G317" s="11"/>
+      <c r="H317" s="11"/>
+      <c r="I317" s="11"/>
+      <c r="J317" s="11"/>
+      <c r="K317" s="11"/>
+      <c r="L317" s="11"/>
+      <c r="M317" s="11"/>
+      <c r="N317" s="11"/>
+      <c r="O317" s="11"/>
+      <c r="P317" s="11"/>
+      <c r="Q317" s="11"/>
+      <c r="R317" s="13">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="15">
+        <v>44647.0</v>
+      </c>
+      <c r="B318" s="11"/>
+      <c r="C318" s="11"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="11"/>
+      <c r="F318" s="11"/>
+      <c r="G318" s="11"/>
+      <c r="H318" s="11"/>
+      <c r="I318" s="11"/>
+      <c r="J318" s="11"/>
+      <c r="K318" s="11"/>
+      <c r="L318" s="11"/>
+      <c r="M318" s="11"/>
+      <c r="N318" s="11"/>
+      <c r="O318" s="11"/>
+      <c r="P318" s="11"/>
+      <c r="Q318" s="11"/>
+      <c r="R318" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="15">
+        <v>44648.0</v>
+      </c>
+      <c r="B319" s="11"/>
+      <c r="C319" s="11"/>
+      <c r="D319" s="11"/>
+      <c r="E319" s="11"/>
+      <c r="F319" s="11"/>
+      <c r="G319" s="11"/>
+      <c r="H319" s="11"/>
+      <c r="I319" s="11"/>
+      <c r="J319" s="11"/>
+      <c r="K319" s="11"/>
+      <c r="L319" s="11"/>
+      <c r="M319" s="11"/>
+      <c r="N319" s="11"/>
+      <c r="O319" s="11"/>
+      <c r="P319" s="11"/>
+      <c r="Q319" s="11"/>
+      <c r="R319" s="13">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="15">
+        <v>44649.0</v>
+      </c>
+      <c r="B320" s="11"/>
+      <c r="C320" s="11"/>
+      <c r="D320" s="11"/>
+      <c r="E320" s="11"/>
+      <c r="F320" s="11"/>
+      <c r="G320" s="11"/>
+      <c r="H320" s="11"/>
+      <c r="I320" s="11"/>
+      <c r="J320" s="11"/>
+      <c r="K320" s="11"/>
+      <c r="L320" s="11"/>
+      <c r="M320" s="11"/>
+      <c r="N320" s="11"/>
+      <c r="O320" s="11"/>
+      <c r="P320" s="11"/>
+      <c r="Q320" s="11"/>
+      <c r="R320" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="15">
+        <v>44650.0</v>
+      </c>
+      <c r="B321" s="11"/>
+      <c r="C321" s="11"/>
+      <c r="D321" s="11"/>
+      <c r="E321" s="11"/>
+      <c r="F321" s="11"/>
+      <c r="G321" s="11"/>
+      <c r="H321" s="11"/>
+      <c r="I321" s="11"/>
+      <c r="J321" s="11"/>
+      <c r="K321" s="11"/>
+      <c r="L321" s="11"/>
+      <c r="M321" s="11"/>
+      <c r="N321" s="11"/>
+      <c r="O321" s="11"/>
+      <c r="P321" s="11"/>
+      <c r="Q321" s="11"/>
+      <c r="R321" s="13">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="15">
+        <v>44651.0</v>
+      </c>
+      <c r="B322" s="11"/>
+      <c r="C322" s="11"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="11"/>
+      <c r="F322" s="11"/>
+      <c r="G322" s="11"/>
+      <c r="H322" s="11"/>
+      <c r="I322" s="11"/>
+      <c r="J322" s="11"/>
+      <c r="K322" s="11"/>
+      <c r="L322" s="11"/>
+      <c r="M322" s="11"/>
+      <c r="N322" s="11"/>
+      <c r="O322" s="11"/>
+      <c r="P322" s="11"/>
+      <c r="Q322" s="11"/>
+      <c r="R322" s="13">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="15">
+        <v>44652.0</v>
+      </c>
+      <c r="B323" s="11"/>
+      <c r="C323" s="11"/>
+      <c r="D323" s="11"/>
+      <c r="E323" s="11"/>
+      <c r="F323" s="11"/>
+      <c r="G323" s="11"/>
+      <c r="H323" s="11"/>
+      <c r="I323" s="11"/>
+      <c r="J323" s="11"/>
+      <c r="K323" s="11"/>
+      <c r="L323" s="11"/>
+      <c r="M323" s="11"/>
+      <c r="N323" s="11"/>
+      <c r="O323" s="11"/>
+      <c r="P323" s="11"/>
+      <c r="Q323" s="11"/>
+      <c r="R323" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="15">
+        <v>44653.0</v>
+      </c>
+      <c r="B324" s="11"/>
+      <c r="C324" s="11"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="11"/>
+      <c r="F324" s="11"/>
+      <c r="G324" s="11"/>
+      <c r="H324" s="11"/>
+      <c r="I324" s="11"/>
+      <c r="J324" s="11"/>
+      <c r="K324" s="11"/>
+      <c r="L324" s="11"/>
+      <c r="M324" s="11"/>
+      <c r="N324" s="11"/>
+      <c r="O324" s="11"/>
+      <c r="P324" s="11"/>
+      <c r="Q324" s="11"/>
+      <c r="R324" s="13">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="15">
+        <v>44654.0</v>
+      </c>
+      <c r="B325" s="11"/>
+      <c r="C325" s="11"/>
+      <c r="D325" s="11"/>
+      <c r="E325" s="11"/>
+      <c r="F325" s="11"/>
+      <c r="G325" s="11"/>
+      <c r="H325" s="11"/>
+      <c r="I325" s="11"/>
+      <c r="J325" s="11"/>
+      <c r="K325" s="11"/>
+      <c r="L325" s="11"/>
+      <c r="M325" s="11"/>
+      <c r="N325" s="11"/>
+      <c r="O325" s="11"/>
+      <c r="P325" s="11"/>
+      <c r="Q325" s="11"/>
+      <c r="R325" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="15">
+        <v>44655.0</v>
+      </c>
+      <c r="B326" s="11"/>
+      <c r="C326" s="11"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="11"/>
+      <c r="F326" s="11"/>
+      <c r="G326" s="11"/>
+      <c r="H326" s="11"/>
+      <c r="I326" s="11"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="11"/>
+      <c r="L326" s="11"/>
+      <c r="M326" s="11"/>
+      <c r="N326" s="11"/>
+      <c r="O326" s="11"/>
+      <c r="P326" s="11"/>
+      <c r="Q326" s="11"/>
+      <c r="R326" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="15">
+        <v>44656.0</v>
+      </c>
+      <c r="B327" s="11"/>
+      <c r="C327" s="11"/>
+      <c r="D327" s="11"/>
+      <c r="E327" s="11"/>
+      <c r="F327" s="11"/>
+      <c r="G327" s="11"/>
+      <c r="H327" s="11"/>
+      <c r="I327" s="11"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="11"/>
+      <c r="L327" s="11"/>
+      <c r="M327" s="11"/>
+      <c r="N327" s="11"/>
+      <c r="O327" s="11"/>
+      <c r="P327" s="11"/>
+      <c r="Q327" s="11"/>
+      <c r="R327" s="19">
+        <v>3.4482758620689653</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="15">
+        <v>44657.0</v>
+      </c>
+      <c r="B328" s="11"/>
+      <c r="C328" s="11"/>
+      <c r="D328" s="11"/>
+      <c r="E328" s="11"/>
+      <c r="F328" s="11"/>
+      <c r="G328" s="11"/>
+      <c r="H328" s="11"/>
+      <c r="I328" s="11"/>
+      <c r="J328" s="11"/>
+      <c r="K328" s="11"/>
+      <c r="L328" s="11"/>
+      <c r="M328" s="11"/>
+      <c r="N328" s="11"/>
+      <c r="O328" s="11"/>
+      <c r="P328" s="11"/>
+      <c r="Q328" s="11"/>
+      <c r="R328" s="19">
+        <v>7.547169811320755</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="15">
+        <v>44658.0</v>
+      </c>
+      <c r="B329" s="11"/>
+      <c r="C329" s="11"/>
+      <c r="D329" s="11"/>
+      <c r="E329" s="11"/>
+      <c r="F329" s="11"/>
+      <c r="G329" s="11"/>
+      <c r="H329" s="11"/>
+      <c r="I329" s="11"/>
+      <c r="J329" s="11"/>
+      <c r="K329" s="11"/>
+      <c r="L329" s="11"/>
+      <c r="M329" s="11"/>
+      <c r="N329" s="11"/>
+      <c r="O329" s="11"/>
+      <c r="P329" s="11"/>
+      <c r="Q329" s="11"/>
+      <c r="R329" s="19">
+        <v>8.695652173913043</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="15">
+        <v>44659.0</v>
+      </c>
+      <c r="B330" s="11"/>
+      <c r="C330" s="11"/>
+      <c r="D330" s="11"/>
+      <c r="E330" s="11"/>
+      <c r="F330" s="11"/>
+      <c r="G330" s="11"/>
+      <c r="H330" s="11"/>
+      <c r="I330" s="11"/>
+      <c r="J330" s="11"/>
+      <c r="K330" s="11"/>
+      <c r="L330" s="11"/>
+      <c r="M330" s="11"/>
+      <c r="N330" s="11"/>
+      <c r="O330" s="11"/>
+      <c r="P330" s="11"/>
+      <c r="Q330" s="11"/>
+      <c r="R330" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="15">
+        <v>44660.0</v>
+      </c>
+      <c r="B331" s="11"/>
+      <c r="C331" s="11"/>
+      <c r="D331" s="11"/>
+      <c r="E331" s="11"/>
+      <c r="F331" s="11"/>
+      <c r="G331" s="11"/>
+      <c r="H331" s="11"/>
+      <c r="I331" s="11"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="11"/>
+      <c r="L331" s="11"/>
+      <c r="M331" s="11"/>
+      <c r="N331" s="11"/>
+      <c r="O331" s="11"/>
+      <c r="P331" s="11"/>
+      <c r="Q331" s="11"/>
+      <c r="R331" s="20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="15">
+        <v>44661.0</v>
+      </c>
+      <c r="B332" s="11"/>
+      <c r="C332" s="11"/>
+      <c r="D332" s="11"/>
+      <c r="E332" s="11"/>
+      <c r="F332" s="11"/>
+      <c r="G332" s="11"/>
+      <c r="H332" s="11"/>
+      <c r="I332" s="11"/>
+      <c r="J332" s="11"/>
+      <c r="K332" s="11"/>
+      <c r="L332" s="11"/>
+      <c r="M332" s="11"/>
+      <c r="N332" s="11"/>
+      <c r="O332" s="11"/>
+      <c r="P332" s="11"/>
+      <c r="Q332" s="11"/>
+      <c r="R332" s="20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="15">
+        <v>44662.0</v>
+      </c>
+      <c r="B333" s="11"/>
+      <c r="C333" s="11"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="11"/>
+      <c r="F333" s="11"/>
+      <c r="G333" s="11"/>
+      <c r="H333" s="11"/>
+      <c r="I333" s="11"/>
+      <c r="J333" s="11"/>
+      <c r="K333" s="11"/>
+      <c r="L333" s="11"/>
+      <c r="M333" s="11"/>
+      <c r="N333" s="11"/>
+      <c r="O333" s="11"/>
+      <c r="P333" s="11"/>
+      <c r="Q333" s="11"/>
+      <c r="R333" s="20">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="15">
+        <v>44663.0</v>
+      </c>
+      <c r="B334" s="11"/>
+      <c r="C334" s="11"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="11"/>
+      <c r="F334" s="11"/>
+      <c r="G334" s="11"/>
+      <c r="H334" s="11"/>
+      <c r="I334" s="11"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="11"/>
+      <c r="L334" s="11"/>
+      <c r="M334" s="11"/>
+      <c r="N334" s="11"/>
+      <c r="O334" s="11"/>
+      <c r="P334" s="11"/>
+      <c r="Q334" s="11"/>
+      <c r="R334" s="20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="15">
+        <v>44664.0</v>
+      </c>
+      <c r="B335" s="11"/>
+      <c r="C335" s="11"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="11"/>
+      <c r="F335" s="11"/>
+      <c r="G335" s="11"/>
+      <c r="H335" s="11"/>
+      <c r="I335" s="11"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="11"/>
+      <c r="L335" s="11"/>
+      <c r="M335" s="11"/>
+      <c r="N335" s="11"/>
+      <c r="O335" s="11"/>
+      <c r="P335" s="11"/>
+      <c r="Q335" s="11"/>
+      <c r="R335" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="15">
+        <v>44665.0</v>
+      </c>
+      <c r="B336" s="11"/>
+      <c r="C336" s="11"/>
+      <c r="D336" s="11"/>
+      <c r="E336" s="11"/>
+      <c r="F336" s="11"/>
+      <c r="G336" s="11"/>
+      <c r="H336" s="11"/>
+      <c r="I336" s="11"/>
+      <c r="J336" s="11"/>
+      <c r="K336" s="11"/>
+      <c r="L336" s="11"/>
+      <c r="M336" s="11"/>
+      <c r="N336" s="11"/>
+      <c r="O336" s="11"/>
+      <c r="P336" s="11"/>
+      <c r="Q336" s="11"/>
+      <c r="R336" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="15">
+        <v>44666.0</v>
+      </c>
+      <c r="B337" s="11"/>
+      <c r="C337" s="11"/>
+      <c r="D337" s="11"/>
+      <c r="E337" s="11"/>
+      <c r="F337" s="11"/>
+      <c r="G337" s="11"/>
+      <c r="H337" s="11"/>
+      <c r="I337" s="11"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="11"/>
+      <c r="L337" s="11"/>
+      <c r="M337" s="11"/>
+      <c r="N337" s="11"/>
+      <c r="O337" s="11"/>
+      <c r="P337" s="11"/>
+      <c r="Q337" s="11"/>
+      <c r="R337" s="19">
+        <v>-0.6993006993007033</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="15">
+        <v>44667.0</v>
+      </c>
+      <c r="B338" s="11"/>
+      <c r="C338" s="11"/>
+      <c r="D338" s="11"/>
+      <c r="E338" s="11"/>
+      <c r="F338" s="11"/>
+      <c r="G338" s="11"/>
+      <c r="H338" s="11"/>
+      <c r="I338" s="11"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="11"/>
+      <c r="L338" s="11"/>
+      <c r="M338" s="11"/>
+      <c r="N338" s="11"/>
+      <c r="O338" s="11"/>
+      <c r="P338" s="11"/>
+      <c r="Q338" s="11"/>
+      <c r="R338" s="19">
+        <v>4.208998548621182</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="15">
+        <v>44668.0</v>
+      </c>
+      <c r="B339" s="11"/>
+      <c r="C339" s="11"/>
+      <c r="D339" s="11"/>
+      <c r="E339" s="11"/>
+      <c r="F339" s="11"/>
+      <c r="G339" s="11"/>
+      <c r="H339" s="11"/>
+      <c r="I339" s="11"/>
+      <c r="J339" s="11"/>
+      <c r="K339" s="11"/>
+      <c r="L339" s="11"/>
+      <c r="M339" s="11"/>
+      <c r="N339" s="11"/>
+      <c r="O339" s="11"/>
+      <c r="P339" s="11"/>
+      <c r="Q339" s="11"/>
+      <c r="R339" s="19">
+        <v>7.692307692307679</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="15">
+        <v>44669.0</v>
+      </c>
+      <c r="B340" s="11"/>
+      <c r="C340" s="11"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="11"/>
+      <c r="F340" s="11"/>
+      <c r="G340" s="11"/>
+      <c r="H340" s="11"/>
+      <c r="I340" s="11"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="11"/>
+      <c r="L340" s="11"/>
+      <c r="M340" s="11"/>
+      <c r="N340" s="11"/>
+      <c r="O340" s="11"/>
+      <c r="P340" s="11"/>
+      <c r="Q340" s="11"/>
+      <c r="R340" s="20">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="15">
+        <v>44670.0</v>
+      </c>
+      <c r="B341" s="11"/>
+      <c r="C341" s="11"/>
+      <c r="D341" s="11"/>
+      <c r="E341" s="11"/>
+      <c r="F341" s="11"/>
+      <c r="G341" s="11"/>
+      <c r="H341" s="11"/>
+      <c r="I341" s="11"/>
+      <c r="J341" s="11"/>
+      <c r="K341" s="11"/>
+      <c r="L341" s="11"/>
+      <c r="M341" s="11"/>
+      <c r="N341" s="11"/>
+      <c r="O341" s="11"/>
+      <c r="P341" s="11"/>
+      <c r="Q341" s="11"/>
+      <c r="R341" s="19">
+        <v>7.692307692307665</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="15">
+        <v>44671.0</v>
+      </c>
+      <c r="B342" s="11"/>
+      <c r="C342" s="11"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="11"/>
+      <c r="F342" s="11"/>
+      <c r="G342" s="11"/>
+      <c r="H342" s="11"/>
+      <c r="I342" s="11"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="11"/>
+      <c r="L342" s="11"/>
+      <c r="M342" s="11"/>
+      <c r="N342" s="11"/>
+      <c r="O342" s="11"/>
+      <c r="P342" s="11"/>
+      <c r="Q342" s="11"/>
+      <c r="R342" s="20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="15">
+        <v>44672.0</v>
+      </c>
+      <c r="B343" s="11"/>
+      <c r="C343" s="11"/>
+      <c r="D343" s="11"/>
+      <c r="E343" s="11"/>
+      <c r="F343" s="11"/>
+      <c r="G343" s="11"/>
+      <c r="H343" s="11"/>
+      <c r="I343" s="11"/>
+      <c r="J343" s="11"/>
+      <c r="K343" s="11"/>
+      <c r="L343" s="11"/>
+      <c r="M343" s="11"/>
+      <c r="N343" s="11"/>
+      <c r="O343" s="11"/>
+      <c r="P343" s="11"/>
+      <c r="Q343" s="11"/>
+      <c r="R343" s="20">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="15">
+        <v>44673.0</v>
+      </c>
+      <c r="B344" s="11"/>
+      <c r="C344" s="11"/>
+      <c r="D344" s="11"/>
+      <c r="E344" s="11"/>
+      <c r="F344" s="11"/>
+      <c r="G344" s="11"/>
+      <c r="H344" s="11"/>
+      <c r="I344" s="11"/>
+      <c r="J344" s="11"/>
+      <c r="K344" s="11"/>
+      <c r="L344" s="11"/>
+      <c r="M344" s="11"/>
+      <c r="N344" s="11"/>
+      <c r="O344" s="11"/>
+      <c r="P344" s="11"/>
+      <c r="Q344" s="11"/>
+      <c r="R344" s="20">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="15">
+        <v>44674.0</v>
+      </c>
+      <c r="B345" s="11"/>
+      <c r="C345" s="11"/>
+      <c r="D345" s="11"/>
+      <c r="E345" s="11"/>
+      <c r="F345" s="11"/>
+      <c r="G345" s="11"/>
+      <c r="H345" s="11"/>
+      <c r="I345" s="11"/>
+      <c r="J345" s="11"/>
+      <c r="K345" s="11"/>
+      <c r="L345" s="11"/>
+      <c r="M345" s="11"/>
+      <c r="N345" s="11"/>
+      <c r="O345" s="11"/>
+      <c r="P345" s="11"/>
+      <c r="Q345" s="11"/>
+      <c r="R345" s="20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="15">
+        <v>44675.0</v>
+      </c>
+      <c r="B346" s="11"/>
+      <c r="C346" s="11"/>
+      <c r="D346" s="11"/>
+      <c r="E346" s="11"/>
+      <c r="F346" s="11"/>
+      <c r="G346" s="11"/>
+      <c r="H346" s="11"/>
+      <c r="I346" s="11"/>
+      <c r="J346" s="11"/>
+      <c r="K346" s="11"/>
+      <c r="L346" s="11"/>
+      <c r="M346" s="11"/>
+      <c r="N346" s="11"/>
+      <c r="O346" s="11"/>
+      <c r="P346" s="11"/>
+      <c r="Q346" s="11"/>
+      <c r="R346" s="20">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="15">
+        <v>44676.0</v>
+      </c>
+      <c r="B347" s="11"/>
+      <c r="C347" s="11"/>
+      <c r="D347" s="11"/>
+      <c r="E347" s="11"/>
+      <c r="F347" s="11"/>
+      <c r="G347" s="11"/>
+      <c r="H347" s="11"/>
+      <c r="I347" s="11"/>
+      <c r="J347" s="11"/>
+      <c r="K347" s="11"/>
+      <c r="L347" s="11"/>
+      <c r="M347" s="11"/>
+      <c r="N347" s="11"/>
+      <c r="O347" s="11"/>
+      <c r="P347" s="11"/>
+      <c r="Q347" s="11"/>
+      <c r="R347" s="20">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="15">
+        <v>44677.0</v>
+      </c>
+      <c r="B348" s="11"/>
+      <c r="C348" s="11"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="11"/>
+      <c r="F348" s="11"/>
+      <c r="G348" s="11"/>
+      <c r="H348" s="11"/>
+      <c r="I348" s="11"/>
+      <c r="J348" s="11"/>
+      <c r="K348" s="11"/>
+      <c r="L348" s="11"/>
+      <c r="M348" s="11"/>
+      <c r="N348" s="11"/>
+      <c r="O348" s="11"/>
+      <c r="P348" s="11"/>
+      <c r="Q348" s="11"/>
+      <c r="R348" s="20">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="15">
+        <v>44678.0</v>
+      </c>
+      <c r="B349" s="11"/>
+      <c r="C349" s="11"/>
+      <c r="D349" s="11"/>
+      <c r="E349" s="11"/>
+      <c r="F349" s="11"/>
+      <c r="G349" s="11"/>
+      <c r="H349" s="11"/>
+      <c r="I349" s="11"/>
+      <c r="J349" s="11"/>
+      <c r="K349" s="11"/>
+      <c r="L349" s="11"/>
+      <c r="M349" s="11"/>
+      <c r="N349" s="11"/>
+      <c r="O349" s="11"/>
+      <c r="P349" s="11"/>
+      <c r="Q349" s="11"/>
+      <c r="R349" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="15">
+        <v>44679.0</v>
+      </c>
+      <c r="B350" s="11"/>
+      <c r="C350" s="11"/>
+      <c r="D350" s="11"/>
+      <c r="E350" s="11"/>
+      <c r="F350" s="11"/>
+      <c r="G350" s="11"/>
+      <c r="H350" s="11"/>
+      <c r="I350" s="11"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="11"/>
+      <c r="L350" s="11"/>
+      <c r="M350" s="11"/>
+      <c r="N350" s="11"/>
+      <c r="O350" s="11"/>
+      <c r="P350" s="11"/>
+      <c r="Q350" s="11"/>
+      <c r="R350" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="15">
+        <v>44680.0</v>
+      </c>
+      <c r="B351" s="11"/>
+      <c r="C351" s="11"/>
+      <c r="D351" s="11"/>
+      <c r="E351" s="11"/>
+      <c r="F351" s="11"/>
+      <c r="G351" s="11"/>
+      <c r="H351" s="11"/>
+      <c r="I351" s="11"/>
+      <c r="J351" s="11"/>
+      <c r="K351" s="11"/>
+      <c r="L351" s="11"/>
+      <c r="M351" s="11"/>
+      <c r="N351" s="11"/>
+      <c r="O351" s="11"/>
+      <c r="P351" s="11"/>
+      <c r="Q351" s="11"/>
+      <c r="R351" s="19">
+        <v>4.513888888888884</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="15">
+        <v>44681.0</v>
+      </c>
+      <c r="B352" s="11"/>
+      <c r="C352" s="11"/>
+      <c r="D352" s="11"/>
+      <c r="E352" s="11"/>
+      <c r="F352" s="11"/>
+      <c r="G352" s="11"/>
+      <c r="H352" s="11"/>
+      <c r="I352" s="11"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="11"/>
+      <c r="L352" s="11"/>
+      <c r="M352" s="11"/>
+      <c r="N352" s="11"/>
+      <c r="O352" s="11"/>
+      <c r="P352" s="11"/>
+      <c r="Q352" s="11"/>
+      <c r="R352" s="19">
+        <v>3.5087719298245488</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="15">
+        <v>44682.0</v>
+      </c>
+      <c r="B353" s="11"/>
+      <c r="C353" s="11"/>
+      <c r="D353" s="11"/>
+      <c r="E353" s="11"/>
+      <c r="F353" s="11"/>
+      <c r="G353" s="11"/>
+      <c r="H353" s="11"/>
+      <c r="I353" s="11"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="11"/>
+      <c r="L353" s="11"/>
+      <c r="M353" s="11"/>
+      <c r="N353" s="11"/>
+      <c r="O353" s="11"/>
+      <c r="P353" s="11"/>
+      <c r="Q353" s="11"/>
+      <c r="R353" s="20">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="15">
+        <v>44683.0</v>
+      </c>
+      <c r="B354" s="11"/>
+      <c r="C354" s="11"/>
+      <c r="D354" s="11"/>
+      <c r="E354" s="11"/>
+      <c r="F354" s="11"/>
+      <c r="G354" s="11"/>
+      <c r="H354" s="11"/>
+      <c r="I354" s="11"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="11"/>
+      <c r="L354" s="11"/>
+      <c r="M354" s="11"/>
+      <c r="N354" s="11"/>
+      <c r="O354" s="11"/>
+      <c r="P354" s="11"/>
+      <c r="Q354" s="11"/>
+      <c r="R354" s="20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="15">
+        <v>44684.0</v>
+      </c>
+      <c r="B355" s="11"/>
+      <c r="C355" s="11"/>
+      <c r="D355" s="11"/>
+      <c r="E355" s="11"/>
+      <c r="F355" s="11"/>
+      <c r="G355" s="11"/>
+      <c r="H355" s="11"/>
+      <c r="I355" s="11"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="11"/>
+      <c r="L355" s="11"/>
+      <c r="M355" s="11"/>
+      <c r="N355" s="11"/>
+      <c r="O355" s="11"/>
+      <c r="P355" s="11"/>
+      <c r="Q355" s="11"/>
+      <c r="R355" s="20">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="15">
+        <v>44685.0</v>
+      </c>
+      <c r="B356" s="11"/>
+      <c r="C356" s="11"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="11"/>
+      <c r="F356" s="11"/>
+      <c r="G356" s="11"/>
+      <c r="H356" s="11"/>
+      <c r="I356" s="11"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="11"/>
+      <c r="L356" s="11"/>
+      <c r="M356" s="11"/>
+      <c r="N356" s="11"/>
+      <c r="O356" s="11"/>
+      <c r="P356" s="11"/>
+      <c r="Q356" s="11"/>
+      <c r="R356" s="20">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
